--- a/ExchangeActiveSync/Docs/MS-ASPROV/MS-ASPROV_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASPROV/MS-ASPROV_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDC168B-5BAA-4981-8B14-3D9F5EB73AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8498B7-F08D-4D87-9CE0-69192CEC6E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7149" uniqueCount="2170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7153" uniqueCount="2170">
   <si>
     <t>Req ID</t>
   </si>
@@ -7267,21 +7267,6 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7305,6 +7290,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13333,8 +13333,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C820" sqref="C820"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -13385,120 +13385,120 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:9" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="24" t="s">
@@ -13510,12 +13510,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="25" t="s">
@@ -13527,12 +13527,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="25" t="s">
@@ -13544,12 +13544,12 @@
       <c r="C14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="26" t="s">
@@ -13561,57 +13561,57 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="1:9" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" s="42" customFormat="1" ht="28.8">
       <c r="A19" s="3" t="s">
@@ -15793,6 +15793,18 @@
       <c r="C106" s="19" t="s">
         <v>1824</v>
       </c>
+      <c r="E106" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="41" t="s">
+        <v>18</v>
+      </c>
       <c r="I106" s="44"/>
     </row>
     <row r="107" spans="1:9" s="41" customFormat="1" ht="28.8">
@@ -38900,6 +38912,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -38907,11 +38924,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A284:I284 D963:E963 A876:E876 A1018:I1029 A296:I296 I102:I106 A118:I118 I113:I117 A130:I130 I125:I129 A141:I141 I136:I140 A153:I153 I148:I152 A164:I164 I159:I163 A176:I176 I171:I175 A188:I188 I183:I187 A199:I199 I194:I198 A211:I211 I206:I210 A225:I225 I220:I224 A237:I237 I232:I236 A248:I248 I243:I247 A260:I260 I255:I259 A272:I272 I267:I271 A308:I308 I303:I307 A321:I321 I316:I320 A331:I331 I326:I330 A344:I344 I339:I343 I350:I354 A365:I365 I360:I364 A376:I376 I371:I375 A390:I390 I385:I389 I399:I403 A413:I413 I408:I412 A423:I423 I418:I422 A433:I433 I428:I432 A447:I447 I442:I446 A459:I459 I454:I458 A474:I474 I469:I473 A486:I486 I481:I485 A498:I498 I493:I497 I503:I507 A520:I520 I515:I519 I526:I530 A549:I549 I544:I548 I552:I556 A569:I569 I564:I568 A580:I580 I575:I579 A591:I591 I585:I589 A598:I598 I593:I597 A608:I608 I603:I607 A619:I619 I614:I618 A630:I630 I625:I629 A644:I644 I639:I643 A655:I655 I650:I654 A666:I666 I661:I665 A677:I677 I672:I676 I684:I688 A727:I727 I722:I726 A740:I740 I735:I739 A751:I751 I746:I750 I758:I762 A355:I355 C590:I590 A956:C956 E956:I956 A877:I892 A957:I962 C107:I112 C95:I101 B95:B106 A20:I94 C119:I124 A119:A129 C131:I135 A131:A140 C142:I147 A142:A152 A154:A163 C154:I158 A165:A175 C165:I170 A177:A187 C177:I182 A189:A198 C189:I193 C200:I205 A200:A210 C212:I219 A212:A224 C226:I231 A226:A236 C238:I242 A238:A247 C249:I254 A249:A259 C261:I266 A261:A271 C273:I277 C278:E278 A273:A283 C290:E290 C285:I289 A285:A295 C297:I302 A297:A307 C309:I315 A309:A320 C322:I325 A322:A330 C332:I338 A332:A343 A345:A353 C345:I349 A354:B354 C356:I359 A356:A364 C366:I370 A366:A375 C377:I384 A377:A389 C391:I398 A391:A403 A404:I407 A408:B412 C414:I417 A414:A422 C424:I427 A424:A432 C434:I441 A434:A446 C448:I453 A448:A458 C460:I468 A460:A473 C475:I480 A475:A485 C487:I492 A487:A497 C499:I502 A499:A507 A508:I514 A515:B519 C521:I525 A521:A530 A531:I541 C542:I543 A542:A548 C550:I551 A550:A556 A557:I562 C563:I563 A563:A568 C570:I574 A570:A579 C581:I584 A581:A590 C592:I592 A592:A597 C599:I602 A599:A607 C609:I613 A609:A618 C620:I624 A620:A629 C631:I638 A631:A643 C645:I649 A645:A654 C656:I660 A656:A665 C667:I671 A667:A676 C678:I683 A678:A688 A689:I717 C718:I721 A718:A726 C728:I734 A728:A739 C741:I745 A741:A750 C752:I757 A752:A762 A763:I828 A829:A833 C829:I833 A834:I875 A894:I955 A964:B1017 D964:I1017 A95:A117">
@@ -42671,15 +42683,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -42728,6 +42731,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -42735,14 +42747,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42753,6 +42757,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ExchangeActiveSync/Docs/MS-ASPROV/MS-ASPROV_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASPROV/MS-ASPROV_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8498B7-F08D-4D87-9CE0-69192CEC6E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F95A7EC-7B78-4415-8BA7-56129D83D99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7153" uniqueCount="2170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7153" uniqueCount="2172">
   <si>
     <t>Req ID</t>
   </si>
@@ -3825,39 +3825,6 @@
     <t>[In Provision Command Errors] [When the scope is Policy], [the resolution of status value 5 is] Issue a new Provision request to obtain a valid policy key.</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms SHOULD or SHOULD NOT implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Unless otherwise specified, the term MAY implies that the product does not follow the prescription.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] The value of the PolicyKey element is a string representation of a 32-bit unsigned integer. (Exchange 2007 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] The implementation does require that the client device has requested and acknowledged the security policy settings before the client is allowed to synchronize with the server, unless a security policy is set on the implementation to allow it [client is allowed to synchronize with the implementation]. (Exchange 2007 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] The implementation does respond to a security policy settings request in an initial Provision command request with a response in the following format. (Exchange 2007 and above follow this behavior.)
-&lt;Provision&gt;
-   &lt;settings:DeviceInformation&gt;
-      &lt;settings:Status&gt;...&lt;/settings:Status&gt;
-   &lt;/settings:DeviceInformation&gt;
-   &lt;Status&gt;...&lt;/Status&gt;
-   &lt;Policies&gt;
-      &lt;Policy&gt;
-         &lt;PolicyType&gt;MS-EAS-Provisioning-WBXML&lt;/PolicyType&gt;
-         &lt;Status&gt;...&lt;/Status&gt;
-         &lt;PolicyKey&gt;...&lt;/PolicyKey&gt;
-         &lt;Data&gt;
-            &lt;EASProvisionDoc&gt;
-               ...
-            &lt;/EASProvisionDoc&gt;
-         &lt;/Data&gt;
-      &lt;/Policy&gt;
-   &lt;/Policies&gt;
-&lt;/Provision&gt;</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] If it does not [current policy key sent by the client in a security policy settings acknowledgment does not match the temporary policy key issued by the server in the response to the initial request from this client], the implementation does return a Status (section 2.2.2.53.2) value of 5, as specified in section 3.2.5.2. (Exchange 2007 and above follow this behavior.)</t>
   </si>
   <si>
@@ -4139,9 +4106,6 @@
     <t>[In Responding to a Remote Wipe Directive Acknowledgment] If the client reports failure, the server SHOULD return [a value of 2 in the Status element and] a remote wipe directive.&lt;4&gt;</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] &lt;1&gt; Section 3.1.5.1:  Windows 8.1 does not send a Provision command when contacting the server for the first time.</t>
-  </si>
-  <si>
     <t>[In UnapprovedInROMApplicationList] Protocol version 16.0 supports this [UnapprovedInROMApplicationList] element.</t>
   </si>
   <si>
@@ -5534,12 +5498,6 @@
     <t>[In Provision Command Errors] [The cause of status value 139 is] The client returned a value of 2 in the Status child element of the Policy element in a request to the server to acknowledge a policy.&lt;2&gt;</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] [The cause of status value 139 is] The client returned a value of 2 in the Status child element of the Policy element in a request to the implementation to acknowledge a policy. (Exchange 2013 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] [The cause of status value 139 is] The client returned a value of 2 in the Status child element of the Policy element in a request to the implementation to acknowledge a policy. (&lt;2&gt; Section 3.1.5.2:  In Microsoft Exchange Server 2007 and Exchange 2010, this does not cause status code 139.)</t>
-  </si>
-  <si>
     <t>MS-ASPROV_R455:i</t>
   </si>
   <si>
@@ -5552,9 +5510,6 @@
     <t>[In Appendix B: Product Behavior] When a policy setting that was previously set is unset on the server, the  implementation does specify the element that represents the setting as [an empty tag or] a default value. (Exchange 2007 and above follow this behavior.)</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] If the policy key received from the client does not match the stored policy key on the server [, or if the server determines that policy settings need to be updated on the client], the implementation does return a status code, as specified in [MS-ASCMD] section 2.2.4, in the next command response indicating that the client needs to send another Provision command to request the security policy settings and obtain a new policy key. (Exchange 2007 and above follow this behavior.)</t>
-  </si>
-  <si>
     <t>MS-ASPROV_R1044</t>
   </si>
   <si>
@@ -5583,12 +5538,6 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] If the client reports failure, the implementation does return [a value of 2 in the Status element and] a remote wipe directive. (Exchange 2007 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior]  If the client reports failure, the implementation does return a value of 2 in the Status element [and a remote wipe directive]. (&lt;4&gt; Section 3.2.5.1.2.2:  In Exchange 2007 and Exchange 2010, if the client reports failure, the server returns a value of 1 in the Status element.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] If the client reports failure, the implementation does return a value of 2 in the Status element [and a remote wipe directive]. (Exchange 2013 and above follow this behavior.)</t>
   </si>
   <si>
     <t>Verified by derived requirement: MS-ASPROV_R1042, MS-ASPROV_R1048.</t>
@@ -6781,12 +6730,6 @@
     <t>[In Provision Command Errors] [When the scope is Policy], [the resolution of status value 3 is] Issue a request with the PolicyType element set as specified in section 2.2.2.43..</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] If the client reports success, the implementation does return a value of 1 in the Status element (section 2.2.2.54.2). (&lt;3&gt; Section 3.2.5.1.2.2:  In Exchange 2007 and Exchange 2010, if the client reports success, the server returns a value of 1 in the Status element and a remote wipe directive.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] If the client reports success, the implementation does return a value of 1 in the Status element (section 2.2.2.54.2). (Exchange 2013 and above follow this behavior.)</t>
-  </si>
-  <si>
     <t>[In Code Page 14: Provision] [Tag name] EASProvisionDoc [Token] 0x0D [supports protocol versions] 12.0, 12.1, 14.0, 14.1, 16.0, 16.1</t>
   </si>
   <si>
@@ -6951,6 +6894,69 @@
   </si>
   <si>
     <t>[In Acknowledging Security Policy Settings] Any Policy element that has a PolicyType child element with a value other than those specified in section 2.2.2.43 SHOULD be ignored.</t>
+  </si>
+  <si>
+    <t>[In RequireDeviceEncryption] Protocol version 16.1 supports this [RequireDeviceEncryption] element.</t>
+  </si>
+  <si>
+    <t>[In RemoteWipe] Protocol version 16.1 supports this [RemoteWipe] element.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Unless otherwise specified, any statement of optional behavior in this specification that is prescribed using the terms SHOULD or SHOULD NOT implies product behavior in accordance with the SHOULD or SHOULD NOT prescription.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Unless otherwise specified, the term MAY implies that the product does not follow the prescription.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] The value of the PolicyKey element is a string representation of a 32-bit unsigned integer. (Exchange 2007 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] The implementation does require that the client device has requested and acknowledged the security policy settings before the client is allowed to synchronize with the server, unless a security policy is set on the implementation to allow it [client is allowed to synchronize with the implementation]. (Exchange 2007 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] The implementation does respond to a security policy settings request in an initial Provision command request with a response in the following format. (Exchange 2007 and above follow this behavior.)
+&lt;Provision&gt;
+   &lt;settings:DeviceInformation&gt;
+      &lt;settings:Status&gt;...&lt;/settings:Status&gt;
+   &lt;/settings:DeviceInformation&gt;
+   &lt;Status&gt;...&lt;/Status&gt;
+   &lt;Policies&gt;
+      &lt;Policy&gt;
+         &lt;PolicyType&gt;MS-EAS-Provisioning-WBXML&lt;/PolicyType&gt;
+         &lt;Status&gt;...&lt;/Status&gt;
+         &lt;PolicyKey&gt;...&lt;/PolicyKey&gt;
+         &lt;Data&gt;
+            &lt;EASProvisionDoc&gt;
+               ...
+            &lt;/EASProvisionDoc&gt;
+         &lt;/Data&gt;
+      &lt;/Policy&gt;
+   &lt;/Policies&gt;
+&lt;/Provision&gt;</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;1&gt; Section 3.1.5.1:  Windows 8.1 does not send a Provision command when contacting the server for the first time.</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [The cause of status value 139 is] The client returned a value of 2 in the Status child element of the Policy element in a request to the implementation to acknowledge a policy. (&lt;2&gt; Section 3.1.5.2:  In Microsoft Exchange Server 2007 and Exchange 2010, this does not cause status code 139.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] [The cause of status value 139 is] The client returned a value of 2 in the Status child element of the Policy element in a request to the implementation to acknowledge a policy. (Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] If the client reports success, the implementation does return a value of 1 in the Status element (section 2.2.2.54.2). (&lt;3&gt; Section 3.2.5.1.2.2:  In Exchange 2007 and Exchange 2010, if the client reports success, the server returns a value of 1 in the Status element and a remote wipe directive.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] If the client reports success, the implementation does return a value of 1 in the Status element (section 2.2.2.54.2). (Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior]  If the client reports failure, the implementation does return a value of 2 in the Status element [and a remote wipe directive]. (&lt;4&gt; Section 3.2.5.1.2.2:  In Exchange 2007 and Exchange 2010, if the client reports failure, the server returns a value of 1 in the Status element.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] If the client reports failure, the implementation does return a value of 2 in the Status element [and a remote wipe directive]. (Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] If the policy key received from the client does not match the stored policy key on the server [, or if the server determines that policy settings need to be updated on the client], the implementation does return a status code, as specified in [MS-ASCMD] section 2.2.4, in the next command response indicating that the client needs to send another Provision command to request the security policy settings and obtain a new policy key. (Exchange 2007 and above follow this behavior.)</t>
   </si>
 </sst>
 </file>
@@ -7267,6 +7273,21 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7290,21 +7311,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13333,8 +13339,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A956" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B963" sqref="B963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -13353,7 +13359,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
@@ -13362,7 +13368,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -13375,130 +13381,130 @@
         <v>25</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="F3" s="11">
         <v>43445</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:9" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="24" t="s">
@@ -13510,12 +13516,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="25" t="s">
@@ -13527,12 +13533,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="25" t="s">
@@ -13544,12 +13550,12 @@
       <c r="C14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="26" t="s">
@@ -13561,57 +13567,57 @@
       <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" s="42" customFormat="1" ht="28.8">
       <c r="A19" s="3" t="s">
@@ -13650,7 +13656,7 @@
         <v>716</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>1758</v>
+        <v>1747</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
@@ -13675,7 +13681,7 @@
         <v>716</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1761</v>
+        <v>1750</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
@@ -13694,13 +13700,13 @@
     </row>
     <row r="22" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A22" s="21" t="s">
-        <v>1759</v>
+        <v>1748</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>716</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>1762</v>
+        <v>1751</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>19</v>
@@ -13718,13 +13724,13 @@
     </row>
     <row r="23" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A23" s="21" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>716</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>1763</v>
+        <v>1752</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>19</v>
@@ -13823,7 +13829,7 @@
         <v>718</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
@@ -13848,7 +13854,7 @@
         <v>718</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>1764</v>
+        <v>1753</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
@@ -13873,7 +13879,7 @@
         <v>718</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1765</v>
+        <v>1754</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
@@ -13923,7 +13929,7 @@
         <v>719</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
@@ -13967,13 +13973,13 @@
     </row>
     <row r="33" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A33" s="21" t="s">
-        <v>1768</v>
+        <v>1757</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>719</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>1767</v>
+        <v>1756</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>19</v>
@@ -13997,7 +14003,7 @@
         <v>719</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>1769</v>
+        <v>1758</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
@@ -14022,7 +14028,7 @@
         <v>719</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
@@ -14047,7 +14053,7 @@
         <v>719</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>1771</v>
+        <v>1760</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
@@ -14072,7 +14078,7 @@
         <v>719</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27" t="s">
@@ -14097,7 +14103,7 @@
         <v>719</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27" t="s">
@@ -14122,7 +14128,7 @@
         <v>719</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="27" t="s">
@@ -14147,7 +14153,7 @@
         <v>719</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>1775</v>
+        <v>1764</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="27" t="s">
@@ -14172,7 +14178,7 @@
         <v>719</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="27" t="s">
@@ -14197,7 +14203,7 @@
         <v>719</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27" t="s">
@@ -14222,7 +14228,7 @@
         <v>719</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>1778</v>
+        <v>1767</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27" t="s">
@@ -14247,7 +14253,7 @@
         <v>719</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>1779</v>
+        <v>1768</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="27" t="s">
@@ -14272,7 +14278,7 @@
         <v>719</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>1780</v>
+        <v>1769</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27" t="s">
@@ -14297,7 +14303,7 @@
         <v>719</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="27" t="s">
@@ -14322,7 +14328,7 @@
         <v>719</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="27" t="s">
@@ -14347,7 +14353,7 @@
         <v>719</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="27" t="s">
@@ -14372,7 +14378,7 @@
         <v>719</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27" t="s">
@@ -14397,7 +14403,7 @@
         <v>719</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="27" t="s">
@@ -14422,7 +14428,7 @@
         <v>719</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27" t="s">
@@ -14447,7 +14453,7 @@
         <v>719</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="27" t="s">
@@ -14472,7 +14478,7 @@
         <v>719</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="27" t="s">
@@ -14497,7 +14503,7 @@
         <v>719</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="27" t="s">
@@ -14522,7 +14528,7 @@
         <v>719</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="27" t="s">
@@ -14547,7 +14553,7 @@
         <v>719</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="27" t="s">
@@ -14572,7 +14578,7 @@
         <v>719</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="27" t="s">
@@ -14597,7 +14603,7 @@
         <v>719</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="D58" s="27"/>
       <c r="E58" s="27" t="s">
@@ -14622,7 +14628,7 @@
         <v>719</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>1794</v>
+        <v>1783</v>
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="27" t="s">
@@ -14647,7 +14653,7 @@
         <v>719</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>1795</v>
+        <v>1784</v>
       </c>
       <c r="D60" s="27"/>
       <c r="E60" s="27" t="s">
@@ -14672,7 +14678,7 @@
         <v>719</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="27" t="s">
@@ -14697,7 +14703,7 @@
         <v>719</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="27" t="s">
@@ -14722,7 +14728,7 @@
         <v>719</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="27" t="s">
@@ -14747,7 +14753,7 @@
         <v>719</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>1799</v>
+        <v>1788</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="27" t="s">
@@ -14772,7 +14778,7 @@
         <v>719</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="27" t="s">
@@ -14797,7 +14803,7 @@
         <v>719</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="27" t="s">
@@ -14822,7 +14828,7 @@
         <v>719</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>1802</v>
+        <v>1791</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="27" t="s">
@@ -14847,7 +14853,7 @@
         <v>719</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="27" t="s">
@@ -14872,7 +14878,7 @@
         <v>719</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="27" t="s">
@@ -14897,7 +14903,7 @@
         <v>719</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>1805</v>
+        <v>1794</v>
       </c>
       <c r="D70" s="27"/>
       <c r="E70" s="27" t="s">
@@ -14922,7 +14928,7 @@
         <v>719</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="27" t="s">
@@ -14947,7 +14953,7 @@
         <v>719</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>1807</v>
+        <v>1796</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="27" t="s">
@@ -14972,7 +14978,7 @@
         <v>719</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>1808</v>
+        <v>1797</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="27" t="s">
@@ -14997,7 +15003,7 @@
         <v>719</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="27" t="s">
@@ -15022,7 +15028,7 @@
         <v>719</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="27" t="s">
@@ -15047,7 +15053,7 @@
         <v>719</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>1811</v>
+        <v>1800</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27" t="s">
@@ -15072,7 +15078,7 @@
         <v>719</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>1812</v>
+        <v>1801</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="27" t="s">
@@ -15097,7 +15103,7 @@
         <v>719</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>1813</v>
+        <v>1802</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="27" t="s">
@@ -15122,7 +15128,7 @@
         <v>719</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>1814</v>
+        <v>1803</v>
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="27" t="s">
@@ -15147,7 +15153,7 @@
         <v>719</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>1815</v>
+        <v>1804</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="27" t="s">
@@ -15172,7 +15178,7 @@
         <v>719</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>1816</v>
+        <v>1805</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="27" t="s">
@@ -15197,7 +15203,7 @@
         <v>719</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>1817</v>
+        <v>1806</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="27" t="s">
@@ -15222,7 +15228,7 @@
         <v>719</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="27" t="s">
@@ -15247,7 +15253,7 @@
         <v>719</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>1819</v>
+        <v>1808</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27" t="s">
@@ -15272,7 +15278,7 @@
         <v>719</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>1820</v>
+        <v>1809</v>
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="27" t="s">
@@ -15297,7 +15303,7 @@
         <v>719</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>1821</v>
+        <v>1810</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="27" t="s">
@@ -15322,7 +15328,7 @@
         <v>719</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="D87" s="27"/>
       <c r="E87" s="27" t="s">
@@ -15341,13 +15347,13 @@
     </row>
     <row r="88" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A88" s="21" t="s">
-        <v>1826</v>
+        <v>1815</v>
       </c>
       <c r="B88" s="28" t="s">
         <v>720</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>2162</v>
+        <v>2149</v>
       </c>
       <c r="E88" s="41" t="s">
         <v>19</v>
@@ -15365,13 +15371,13 @@
     </row>
     <row r="89" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A89" s="21" t="s">
-        <v>1827</v>
+        <v>1816</v>
       </c>
       <c r="B89" s="28" t="s">
         <v>720</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>2163</v>
+        <v>2150</v>
       </c>
       <c r="E89" s="41" t="s">
         <v>19</v>
@@ -15389,13 +15395,13 @@
     </row>
     <row r="90" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A90" s="21" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="B90" s="28" t="s">
         <v>720</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>2164</v>
+        <v>2151</v>
       </c>
       <c r="E90" s="41" t="s">
         <v>19</v>
@@ -15413,13 +15419,13 @@
     </row>
     <row r="91" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A91" s="21" t="s">
-        <v>1829</v>
+        <v>1818</v>
       </c>
       <c r="B91" s="28" t="s">
         <v>720</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>2165</v>
+        <v>2152</v>
       </c>
       <c r="E91" s="41" t="s">
         <v>19</v>
@@ -15437,13 +15443,13 @@
     </row>
     <row r="92" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A92" s="21" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="B92" s="28" t="s">
         <v>720</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>2166</v>
+        <v>2153</v>
       </c>
       <c r="E92" s="41" t="s">
         <v>19</v>
@@ -15461,13 +15467,13 @@
     </row>
     <row r="93" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A93" s="21" t="s">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="B93" s="28" t="s">
         <v>720</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>2167</v>
+        <v>2154</v>
       </c>
       <c r="E93" s="41" t="s">
         <v>19</v>
@@ -15491,7 +15497,7 @@
         <v>721</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>1823</v>
+        <v>1812</v>
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="27" t="s">
@@ -15685,13 +15691,13 @@
     </row>
     <row r="102" spans="1:9" s="41" customFormat="1">
       <c r="A102" s="21" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="B102" s="22" t="s">
         <v>721</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="D102" s="21"/>
       <c r="E102" s="21" t="s">
@@ -15710,13 +15716,13 @@
     </row>
     <row r="103" spans="1:9" s="41" customFormat="1">
       <c r="A103" s="21" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="B103" s="22" t="s">
         <v>721</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="D103" s="21"/>
       <c r="E103" s="21" t="s">
@@ -15735,13 +15741,13 @@
     </row>
     <row r="104" spans="1:9" s="41" customFormat="1">
       <c r="A104" s="21" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="B104" s="22" t="s">
         <v>721</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="D104" s="21"/>
       <c r="E104" s="21" t="s">
@@ -15760,13 +15766,13 @@
     </row>
     <row r="105" spans="1:9" s="41" customFormat="1">
       <c r="A105" s="21" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="B105" s="22" t="s">
         <v>721</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="D105" s="21"/>
       <c r="E105" s="21" t="s">
@@ -15785,13 +15791,13 @@
     </row>
     <row r="106" spans="1:9" s="41" customFormat="1">
       <c r="A106" s="21" t="s">
-        <v>2168</v>
+        <v>2155</v>
       </c>
       <c r="B106" s="22" t="s">
         <v>721</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>1824</v>
+        <v>1813</v>
       </c>
       <c r="E106" s="41" t="s">
         <v>19</v>
@@ -15815,7 +15821,7 @@
         <v>722</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>1835</v>
+        <v>1824</v>
       </c>
       <c r="D107" s="27"/>
       <c r="E107" s="27" t="s">
@@ -15959,13 +15965,13 @@
     </row>
     <row r="113" spans="1:9" s="41" customFormat="1">
       <c r="A113" s="21" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="B113" s="28" t="s">
         <v>722</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="D113" s="21"/>
       <c r="E113" s="21" t="s">
@@ -15984,13 +15990,13 @@
     </row>
     <row r="114" spans="1:9" s="41" customFormat="1">
       <c r="A114" s="21" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="B114" s="28" t="s">
         <v>722</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="D114" s="21"/>
       <c r="E114" s="21" t="s">
@@ -16009,13 +16015,13 @@
     </row>
     <row r="115" spans="1:9" s="41" customFormat="1">
       <c r="A115" s="21" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="B115" s="28" t="s">
         <v>722</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="D115" s="21"/>
       <c r="E115" s="21" t="s">
@@ -16034,13 +16040,13 @@
     </row>
     <row r="116" spans="1:9" s="41" customFormat="1">
       <c r="A116" s="21" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B116" s="28" t="s">
         <v>722</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="D116" s="21"/>
       <c r="E116" s="21" t="s">
@@ -16059,13 +16065,13 @@
     </row>
     <row r="117" spans="1:9" s="41" customFormat="1">
       <c r="A117" s="21" t="s">
-        <v>1832</v>
+        <v>1821</v>
       </c>
       <c r="B117" s="28" t="s">
         <v>722</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>1825</v>
+        <v>1814</v>
       </c>
       <c r="E117" s="41" t="s">
         <v>19</v>
@@ -16089,7 +16095,7 @@
         <v>723</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>1836</v>
+        <v>1825</v>
       </c>
       <c r="D118" s="27"/>
       <c r="E118" s="27" t="s">
@@ -16258,13 +16264,13 @@
     </row>
     <row r="125" spans="1:9" s="41" customFormat="1">
       <c r="A125" s="21" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="B125" s="22" t="s">
         <v>723</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="D125" s="21"/>
       <c r="E125" s="21" t="s">
@@ -16283,13 +16289,13 @@
     </row>
     <row r="126" spans="1:9" s="41" customFormat="1">
       <c r="A126" s="21" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="B126" s="22" t="s">
         <v>723</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="D126" s="21"/>
       <c r="E126" s="21" t="s">
@@ -16308,13 +16314,13 @@
     </row>
     <row r="127" spans="1:9" s="41" customFormat="1">
       <c r="A127" s="21" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="B127" s="22" t="s">
         <v>723</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="D127" s="21"/>
       <c r="E127" s="21" t="s">
@@ -16333,13 +16339,13 @@
     </row>
     <row r="128" spans="1:9" s="41" customFormat="1">
       <c r="A128" s="21" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="B128" s="22" t="s">
         <v>723</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="D128" s="21"/>
       <c r="E128" s="21" t="s">
@@ -16358,13 +16364,13 @@
     </row>
     <row r="129" spans="1:9" s="41" customFormat="1">
       <c r="A129" s="21" t="s">
-        <v>1834</v>
+        <v>1823</v>
       </c>
       <c r="B129" s="22" t="s">
         <v>723</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>1833</v>
+        <v>1822</v>
       </c>
       <c r="E129" s="21" t="s">
         <v>19</v>
@@ -16388,7 +16394,7 @@
         <v>724</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>1837</v>
+        <v>1826</v>
       </c>
       <c r="D130" s="27"/>
       <c r="E130" s="27" t="s">
@@ -16532,13 +16538,13 @@
     </row>
     <row r="136" spans="1:9" s="41" customFormat="1">
       <c r="A136" s="21" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="B136" s="22" t="s">
         <v>724</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="D136" s="21"/>
       <c r="E136" s="21" t="s">
@@ -16557,13 +16563,13 @@
     </row>
     <row r="137" spans="1:9" s="41" customFormat="1">
       <c r="A137" s="21" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="B137" s="22" t="s">
         <v>724</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="D137" s="21"/>
       <c r="E137" s="21" t="s">
@@ -16582,13 +16588,13 @@
     </row>
     <row r="138" spans="1:9" s="41" customFormat="1">
       <c r="A138" s="21" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="B138" s="22" t="s">
         <v>724</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="D138" s="21"/>
       <c r="E138" s="21" t="s">
@@ -16607,13 +16613,13 @@
     </row>
     <row r="139" spans="1:9" s="41" customFormat="1">
       <c r="A139" s="21" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="B139" s="22" t="s">
         <v>724</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="D139" s="21"/>
       <c r="E139" s="21" t="s">
@@ -16632,13 +16638,13 @@
     </row>
     <row r="140" spans="1:9" s="41" customFormat="1">
       <c r="A140" s="21" t="s">
-        <v>1839</v>
+        <v>1828</v>
       </c>
       <c r="B140" s="22" t="s">
         <v>724</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>1838</v>
+        <v>1827</v>
       </c>
       <c r="E140" s="21" t="s">
         <v>19</v>
@@ -16662,7 +16668,7 @@
         <v>725</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>1840</v>
+        <v>1829</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27" t="s">
@@ -16831,13 +16837,13 @@
     </row>
     <row r="148" spans="1:9" s="41" customFormat="1">
       <c r="A148" s="21" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="B148" s="22" t="s">
         <v>725</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="D148" s="21"/>
       <c r="E148" s="21" t="s">
@@ -16856,13 +16862,13 @@
     </row>
     <row r="149" spans="1:9" s="41" customFormat="1">
       <c r="A149" s="21" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="B149" s="22" t="s">
         <v>725</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="D149" s="21"/>
       <c r="E149" s="21" t="s">
@@ -16881,13 +16887,13 @@
     </row>
     <row r="150" spans="1:9" s="41" customFormat="1">
       <c r="A150" s="21" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="B150" s="22" t="s">
         <v>725</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="D150" s="21"/>
       <c r="E150" s="21" t="s">
@@ -16906,13 +16912,13 @@
     </row>
     <row r="151" spans="1:9" s="41" customFormat="1">
       <c r="A151" s="21" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="B151" s="22" t="s">
         <v>725</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="D151" s="21"/>
       <c r="E151" s="21" t="s">
@@ -16931,13 +16937,13 @@
     </row>
     <row r="152" spans="1:9" s="41" customFormat="1">
       <c r="A152" s="21" t="s">
-        <v>1842</v>
+        <v>1831</v>
       </c>
       <c r="B152" s="22" t="s">
         <v>725</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>1841</v>
+        <v>1830</v>
       </c>
       <c r="E152" s="21" t="s">
         <v>19</v>
@@ -16961,7 +16967,7 @@
         <v>726</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>1843</v>
+        <v>1832</v>
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="27" t="s">
@@ -17105,13 +17111,13 @@
     </row>
     <row r="159" spans="1:9" s="41" customFormat="1">
       <c r="A159" s="21" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="B159" s="22" t="s">
         <v>726</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="D159" s="21"/>
       <c r="E159" s="21" t="s">
@@ -17130,13 +17136,13 @@
     </row>
     <row r="160" spans="1:9" s="41" customFormat="1">
       <c r="A160" s="21" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="B160" s="22" t="s">
         <v>726</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="D160" s="21"/>
       <c r="E160" s="21" t="s">
@@ -17155,13 +17161,13 @@
     </row>
     <row r="161" spans="1:9" s="41" customFormat="1">
       <c r="A161" s="21" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="B161" s="22" t="s">
         <v>726</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="D161" s="21"/>
       <c r="E161" s="21" t="s">
@@ -17180,13 +17186,13 @@
     </row>
     <row r="162" spans="1:9" s="41" customFormat="1">
       <c r="A162" s="21" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="B162" s="22" t="s">
         <v>726</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="D162" s="21"/>
       <c r="E162" s="21" t="s">
@@ -17205,13 +17211,13 @@
     </row>
     <row r="163" spans="1:9" s="41" customFormat="1">
       <c r="A163" s="21" t="s">
-        <v>1844</v>
+        <v>1833</v>
       </c>
       <c r="B163" s="22" t="s">
         <v>726</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="E163" s="21" t="s">
         <v>19</v>
@@ -17235,7 +17241,7 @@
         <v>727</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>1847</v>
+        <v>1836</v>
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27" t="s">
@@ -17404,13 +17410,13 @@
     </row>
     <row r="171" spans="1:9" s="41" customFormat="1">
       <c r="A171" s="21" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="B171" s="22" t="s">
         <v>727</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="D171" s="21"/>
       <c r="E171" s="21" t="s">
@@ -17429,13 +17435,13 @@
     </row>
     <row r="172" spans="1:9" s="41" customFormat="1">
       <c r="A172" s="21" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="B172" s="22" t="s">
         <v>727</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="D172" s="21"/>
       <c r="E172" s="21" t="s">
@@ -17454,13 +17460,13 @@
     </row>
     <row r="173" spans="1:9" s="41" customFormat="1">
       <c r="A173" s="21" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="B173" s="22" t="s">
         <v>727</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="D173" s="21"/>
       <c r="E173" s="21" t="s">
@@ -17479,13 +17485,13 @@
     </row>
     <row r="174" spans="1:9" s="41" customFormat="1">
       <c r="A174" s="21" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="B174" s="22" t="s">
         <v>727</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="D174" s="21"/>
       <c r="E174" s="21" t="s">
@@ -17504,13 +17510,13 @@
     </row>
     <row r="175" spans="1:9" s="41" customFormat="1">
       <c r="A175" s="21" t="s">
-        <v>1848</v>
+        <v>1837</v>
       </c>
       <c r="B175" s="22" t="s">
         <v>727</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>1846</v>
+        <v>1835</v>
       </c>
       <c r="E175" s="21" t="s">
         <v>19</v>
@@ -17534,7 +17540,7 @@
         <v>728</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>1849</v>
+        <v>1838</v>
       </c>
       <c r="D176" s="27"/>
       <c r="E176" s="27" t="s">
@@ -17703,13 +17709,13 @@
     </row>
     <row r="183" spans="1:9" s="41" customFormat="1">
       <c r="A183" s="21" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="B183" s="22" t="s">
         <v>728</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="D183" s="21"/>
       <c r="E183" s="21" t="s">
@@ -17728,13 +17734,13 @@
     </row>
     <row r="184" spans="1:9" s="41" customFormat="1">
       <c r="A184" s="21" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="B184" s="22" t="s">
         <v>728</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="D184" s="21"/>
       <c r="E184" s="21" t="s">
@@ -17753,13 +17759,13 @@
     </row>
     <row r="185" spans="1:9" s="41" customFormat="1">
       <c r="A185" s="21" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="B185" s="22" t="s">
         <v>728</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="D185" s="21"/>
       <c r="E185" s="21" t="s">
@@ -17778,13 +17784,13 @@
     </row>
     <row r="186" spans="1:9" s="41" customFormat="1">
       <c r="A186" s="21" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="B186" s="22" t="s">
         <v>728</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="D186" s="21"/>
       <c r="E186" s="21" t="s">
@@ -17803,13 +17809,13 @@
     </row>
     <row r="187" spans="1:9" s="41" customFormat="1">
       <c r="A187" s="21" t="s">
-        <v>1850</v>
+        <v>1839</v>
       </c>
       <c r="B187" s="22" t="s">
         <v>728</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>1851</v>
+        <v>1840</v>
       </c>
       <c r="E187" s="21" t="s">
         <v>19</v>
@@ -17833,7 +17839,7 @@
         <v>729</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>1852</v>
+        <v>1841</v>
       </c>
       <c r="D188" s="27"/>
       <c r="E188" s="27" t="s">
@@ -17977,13 +17983,13 @@
     </row>
     <row r="194" spans="1:9" s="41" customFormat="1">
       <c r="A194" s="21" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="B194" s="22" t="s">
         <v>729</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="D194" s="21"/>
       <c r="E194" s="21" t="s">
@@ -18002,13 +18008,13 @@
     </row>
     <row r="195" spans="1:9" s="41" customFormat="1">
       <c r="A195" s="21" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="B195" s="22" t="s">
         <v>729</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="D195" s="21"/>
       <c r="E195" s="21" t="s">
@@ -18027,13 +18033,13 @@
     </row>
     <row r="196" spans="1:9" s="41" customFormat="1">
       <c r="A196" s="21" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="B196" s="22" t="s">
         <v>729</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="D196" s="21"/>
       <c r="E196" s="21" t="s">
@@ -18052,13 +18058,13 @@
     </row>
     <row r="197" spans="1:9" s="41" customFormat="1">
       <c r="A197" s="21" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="B197" s="22" t="s">
         <v>729</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="D197" s="21"/>
       <c r="E197" s="21" t="s">
@@ -18077,13 +18083,13 @@
     </row>
     <row r="198" spans="1:9" s="41" customFormat="1">
       <c r="A198" s="21" t="s">
-        <v>1854</v>
+        <v>1843</v>
       </c>
       <c r="B198" s="22" t="s">
         <v>729</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>1853</v>
+        <v>1842</v>
       </c>
       <c r="E198" s="21" t="s">
         <v>19</v>
@@ -18107,7 +18113,7 @@
         <v>730</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>1855</v>
+        <v>1844</v>
       </c>
       <c r="D199" s="27"/>
       <c r="E199" s="27" t="s">
@@ -18276,13 +18282,13 @@
     </row>
     <row r="206" spans="1:9" s="41" customFormat="1">
       <c r="A206" s="21" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="B206" s="22" t="s">
         <v>730</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="D206" s="21"/>
       <c r="E206" s="21" t="s">
@@ -18301,13 +18307,13 @@
     </row>
     <row r="207" spans="1:9" s="41" customFormat="1">
       <c r="A207" s="21" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="B207" s="22" t="s">
         <v>730</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="D207" s="21"/>
       <c r="E207" s="21" t="s">
@@ -18326,13 +18332,13 @@
     </row>
     <row r="208" spans="1:9" s="41" customFormat="1">
       <c r="A208" s="21" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="B208" s="22" t="s">
         <v>730</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="D208" s="21"/>
       <c r="E208" s="21" t="s">
@@ -18351,13 +18357,13 @@
     </row>
     <row r="209" spans="1:9" s="41" customFormat="1">
       <c r="A209" s="21" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="B209" s="22" t="s">
         <v>730</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="D209" s="21"/>
       <c r="E209" s="21" t="s">
@@ -18376,13 +18382,13 @@
     </row>
     <row r="210" spans="1:9" s="41" customFormat="1">
       <c r="A210" s="21" t="s">
-        <v>1857</v>
+        <v>1846</v>
       </c>
       <c r="B210" s="22" t="s">
         <v>730</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>1861</v>
+        <v>1850</v>
       </c>
       <c r="E210" s="21" t="s">
         <v>19</v>
@@ -18406,7 +18412,7 @@
         <v>731</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>1856</v>
+        <v>1845</v>
       </c>
       <c r="D211" s="27"/>
       <c r="E211" s="27" t="s">
@@ -18606,7 +18612,7 @@
         <v>731</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>1858</v>
+        <v>1847</v>
       </c>
       <c r="D219" s="27"/>
       <c r="E219" s="27" t="s">
@@ -18625,13 +18631,13 @@
     </row>
     <row r="220" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A220" s="21" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="B220" s="22" t="s">
         <v>731</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="D220" s="21"/>
       <c r="E220" s="21" t="s">
@@ -18650,13 +18656,13 @@
     </row>
     <row r="221" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A221" s="21" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="B221" s="22" t="s">
         <v>731</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="D221" s="21"/>
       <c r="E221" s="21" t="s">
@@ -18675,13 +18681,13 @@
     </row>
     <row r="222" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A222" s="21" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="B222" s="22" t="s">
         <v>731</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="D222" s="21"/>
       <c r="E222" s="21" t="s">
@@ -18700,13 +18706,13 @@
     </row>
     <row r="223" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A223" s="21" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="B223" s="22" t="s">
         <v>731</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="D223" s="21"/>
       <c r="E223" s="21" t="s">
@@ -18725,13 +18731,13 @@
     </row>
     <row r="224" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A224" s="21" t="s">
-        <v>1860</v>
+        <v>1849</v>
       </c>
       <c r="B224" s="22" t="s">
         <v>731</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>1859</v>
+        <v>1848</v>
       </c>
       <c r="E224" s="21" t="s">
         <v>19</v>
@@ -18755,7 +18761,7 @@
         <v>732</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>1862</v>
+        <v>1851</v>
       </c>
       <c r="D225" s="27"/>
       <c r="E225" s="27" t="s">
@@ -18924,13 +18930,13 @@
     </row>
     <row r="232" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A232" s="21" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="B232" s="22" t="s">
         <v>732</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="D232" s="21"/>
       <c r="E232" s="21" t="s">
@@ -18949,13 +18955,13 @@
     </row>
     <row r="233" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A233" s="21" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="B233" s="22" t="s">
         <v>732</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="D233" s="21"/>
       <c r="E233" s="21" t="s">
@@ -18974,13 +18980,13 @@
     </row>
     <row r="234" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A234" s="21" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="B234" s="22" t="s">
         <v>732</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="D234" s="21"/>
       <c r="E234" s="21" t="s">
@@ -18999,13 +19005,13 @@
     </row>
     <row r="235" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A235" s="21" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="B235" s="22" t="s">
         <v>732</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="D235" s="21"/>
       <c r="E235" s="21" t="s">
@@ -19024,13 +19030,13 @@
     </row>
     <row r="236" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A236" s="21" t="s">
-        <v>1864</v>
+        <v>1853</v>
       </c>
       <c r="B236" s="22" t="s">
         <v>732</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>1863</v>
+        <v>1852</v>
       </c>
       <c r="E236" s="21" t="s">
         <v>19</v>
@@ -19054,7 +19060,7 @@
         <v>733</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>1865</v>
+        <v>1854</v>
       </c>
       <c r="D237" s="27"/>
       <c r="E237" s="27" t="s">
@@ -19198,13 +19204,13 @@
     </row>
     <row r="243" spans="1:9" s="41" customFormat="1">
       <c r="A243" s="21" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="B243" s="22" t="s">
         <v>733</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="D243" s="21"/>
       <c r="E243" s="21" t="s">
@@ -19223,13 +19229,13 @@
     </row>
     <row r="244" spans="1:9" s="41" customFormat="1">
       <c r="A244" s="21" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="B244" s="22" t="s">
         <v>733</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="D244" s="21"/>
       <c r="E244" s="21" t="s">
@@ -19248,13 +19254,13 @@
     </row>
     <row r="245" spans="1:9" s="41" customFormat="1">
       <c r="A245" s="21" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="B245" s="22" t="s">
         <v>733</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="D245" s="21"/>
       <c r="E245" s="21" t="s">
@@ -19273,13 +19279,13 @@
     </row>
     <row r="246" spans="1:9" s="41" customFormat="1">
       <c r="A246" s="21" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="B246" s="22" t="s">
         <v>733</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="D246" s="21"/>
       <c r="E246" s="21" t="s">
@@ -19298,13 +19304,13 @@
     </row>
     <row r="247" spans="1:9" s="41" customFormat="1">
       <c r="A247" s="21" t="s">
-        <v>1867</v>
+        <v>1856</v>
       </c>
       <c r="B247" s="22" t="s">
         <v>733</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>1866</v>
+        <v>1855</v>
       </c>
       <c r="E247" s="21" t="s">
         <v>19</v>
@@ -19328,7 +19334,7 @@
         <v>734</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>1868</v>
+        <v>1857</v>
       </c>
       <c r="D248" s="27"/>
       <c r="E248" s="27" t="s">
@@ -19497,13 +19503,13 @@
     </row>
     <row r="255" spans="1:9" s="41" customFormat="1">
       <c r="A255" s="21" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="B255" s="22" t="s">
         <v>734</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="D255" s="21"/>
       <c r="E255" s="21" t="s">
@@ -19522,13 +19528,13 @@
     </row>
     <row r="256" spans="1:9" s="41" customFormat="1">
       <c r="A256" s="21" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="B256" s="22" t="s">
         <v>734</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="D256" s="21"/>
       <c r="E256" s="21" t="s">
@@ -19547,13 +19553,13 @@
     </row>
     <row r="257" spans="1:9" s="41" customFormat="1">
       <c r="A257" s="21" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="B257" s="22" t="s">
         <v>734</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="D257" s="21"/>
       <c r="E257" s="21" t="s">
@@ -19572,13 +19578,13 @@
     </row>
     <row r="258" spans="1:9" s="41" customFormat="1">
       <c r="A258" s="21" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="B258" s="22" t="s">
         <v>734</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="D258" s="21"/>
       <c r="E258" s="21" t="s">
@@ -19597,13 +19603,13 @@
     </row>
     <row r="259" spans="1:9" s="41" customFormat="1">
       <c r="A259" s="21" t="s">
-        <v>1871</v>
+        <v>1860</v>
       </c>
       <c r="B259" s="22" t="s">
         <v>734</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>1870</v>
+        <v>1859</v>
       </c>
       <c r="E259" s="21" t="s">
         <v>19</v>
@@ -19627,7 +19633,7 @@
         <v>735</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>1869</v>
+        <v>1858</v>
       </c>
       <c r="D260" s="27"/>
       <c r="E260" s="27" t="s">
@@ -19796,13 +19802,13 @@
     </row>
     <row r="267" spans="1:9" s="41" customFormat="1">
       <c r="A267" s="21" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="B267" s="22" t="s">
         <v>735</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="D267" s="21"/>
       <c r="E267" s="21" t="s">
@@ -19821,13 +19827,13 @@
     </row>
     <row r="268" spans="1:9" s="41" customFormat="1">
       <c r="A268" s="21" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="B268" s="22" t="s">
         <v>735</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="D268" s="21"/>
       <c r="E268" s="21" t="s">
@@ -19846,13 +19852,13 @@
     </row>
     <row r="269" spans="1:9" s="41" customFormat="1">
       <c r="A269" s="21" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="B269" s="22" t="s">
         <v>735</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="D269" s="21"/>
       <c r="E269" s="21" t="s">
@@ -19871,13 +19877,13 @@
     </row>
     <row r="270" spans="1:9" s="41" customFormat="1">
       <c r="A270" s="21" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="B270" s="22" t="s">
         <v>735</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="D270" s="21"/>
       <c r="E270" s="21" t="s">
@@ -19896,13 +19902,13 @@
     </row>
     <row r="271" spans="1:9" s="41" customFormat="1">
       <c r="A271" s="21" t="s">
-        <v>1874</v>
+        <v>1863</v>
       </c>
       <c r="B271" s="22" t="s">
         <v>735</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>1873</v>
+        <v>1862</v>
       </c>
       <c r="E271" s="21" t="s">
         <v>19</v>
@@ -19926,7 +19932,7 @@
         <v>736</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>1872</v>
+        <v>1861</v>
       </c>
       <c r="D272" s="27"/>
       <c r="E272" s="27" t="s">
@@ -20070,13 +20076,13 @@
     </row>
     <row r="278" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A278" s="34" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="B278" s="22" t="s">
         <v>736</v>
       </c>
       <c r="C278" s="37" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="D278" s="40"/>
       <c r="E278" s="34" t="s">
@@ -20095,13 +20101,13 @@
     </row>
     <row r="279" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A279" s="21" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="B279" s="22" t="s">
         <v>736</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="D279" s="21"/>
       <c r="E279" s="21" t="s">
@@ -20120,13 +20126,13 @@
     </row>
     <row r="280" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A280" s="21" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="B280" s="22" t="s">
         <v>736</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="D280" s="21"/>
       <c r="E280" s="21" t="s">
@@ -20145,13 +20151,13 @@
     </row>
     <row r="281" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A281" s="21" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="B281" s="22" t="s">
         <v>736</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="D281" s="21"/>
       <c r="E281" s="21" t="s">
@@ -20170,13 +20176,13 @@
     </row>
     <row r="282" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A282" s="21" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="B282" s="22" t="s">
         <v>736</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="D282" s="21"/>
       <c r="E282" s="21" t="s">
@@ -20195,13 +20201,13 @@
     </row>
     <row r="283" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A283" s="21" t="s">
-        <v>1877</v>
+        <v>1866</v>
       </c>
       <c r="B283" s="22" t="s">
         <v>736</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>1876</v>
+        <v>1865</v>
       </c>
       <c r="E283" s="21" t="s">
         <v>19</v>
@@ -20225,7 +20231,7 @@
         <v>737</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>1875</v>
+        <v>1864</v>
       </c>
       <c r="D284" s="27"/>
       <c r="E284" s="27" t="s">
@@ -20369,13 +20375,13 @@
     </row>
     <row r="290" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A290" s="40" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="B290" s="22" t="s">
         <v>737</v>
       </c>
       <c r="C290" s="37" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="D290" s="40"/>
       <c r="E290" s="34" t="s">
@@ -20394,13 +20400,13 @@
     </row>
     <row r="291" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A291" s="21" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="B291" s="22" t="s">
         <v>737</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="D291" s="21"/>
       <c r="E291" s="21" t="s">
@@ -20419,13 +20425,13 @@
     </row>
     <row r="292" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A292" s="21" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="B292" s="22" t="s">
         <v>737</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="D292" s="21"/>
       <c r="E292" s="21" t="s">
@@ -20444,13 +20450,13 @@
     </row>
     <row r="293" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A293" s="21" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="B293" s="22" t="s">
         <v>737</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="D293" s="21"/>
       <c r="E293" s="21" t="s">
@@ -20469,13 +20475,13 @@
     </row>
     <row r="294" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A294" s="21" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="B294" s="22" t="s">
         <v>737</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="D294" s="21"/>
       <c r="E294" s="21" t="s">
@@ -20494,13 +20500,13 @@
     </row>
     <row r="295" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A295" s="21" t="s">
-        <v>1879</v>
+        <v>1868</v>
       </c>
       <c r="B295" s="22" t="s">
         <v>737</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>1880</v>
+        <v>1869</v>
       </c>
       <c r="E295" s="21" t="s">
         <v>19</v>
@@ -20524,7 +20530,7 @@
         <v>738</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>1878</v>
+        <v>1867</v>
       </c>
       <c r="D296" s="27"/>
       <c r="E296" s="27" t="s">
@@ -20693,13 +20699,13 @@
     </row>
     <row r="303" spans="1:9" s="41" customFormat="1">
       <c r="A303" s="21" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="B303" s="22" t="s">
         <v>738</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="D303" s="21"/>
       <c r="E303" s="21" t="s">
@@ -20718,13 +20724,13 @@
     </row>
     <row r="304" spans="1:9" s="41" customFormat="1">
       <c r="A304" s="21" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="B304" s="22" t="s">
         <v>738</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="D304" s="21"/>
       <c r="E304" s="21" t="s">
@@ -20743,13 +20749,13 @@
     </row>
     <row r="305" spans="1:9" s="41" customFormat="1">
       <c r="A305" s="21" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="B305" s="22" t="s">
         <v>738</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="D305" s="21"/>
       <c r="E305" s="21" t="s">
@@ -20768,13 +20774,13 @@
     </row>
     <row r="306" spans="1:9" s="41" customFormat="1">
       <c r="A306" s="21" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="B306" s="22" t="s">
         <v>738</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="D306" s="21"/>
       <c r="E306" s="21" t="s">
@@ -20793,13 +20799,13 @@
     </row>
     <row r="307" spans="1:9" s="41" customFormat="1">
       <c r="A307" s="21" t="s">
-        <v>1882</v>
+        <v>1871</v>
       </c>
       <c r="B307" s="22" t="s">
         <v>738</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>1883</v>
+        <v>1872</v>
       </c>
       <c r="E307" s="21" t="s">
         <v>19</v>
@@ -20823,7 +20829,7 @@
         <v>739</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>1881</v>
+        <v>1870</v>
       </c>
       <c r="D308" s="27"/>
       <c r="E308" s="27" t="s">
@@ -20998,7 +21004,7 @@
         <v>739</v>
       </c>
       <c r="C315" s="19" t="s">
-        <v>1884</v>
+        <v>1873</v>
       </c>
       <c r="D315" s="27"/>
       <c r="E315" s="27" t="s">
@@ -21017,13 +21023,13 @@
     </row>
     <row r="316" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A316" s="21" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="B316" s="22" t="s">
         <v>739</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="D316" s="21"/>
       <c r="E316" s="21" t="s">
@@ -21042,13 +21048,13 @@
     </row>
     <row r="317" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A317" s="21" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="B317" s="22" t="s">
         <v>739</v>
       </c>
       <c r="C317" s="19" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="D317" s="21"/>
       <c r="E317" s="21" t="s">
@@ -21067,13 +21073,13 @@
     </row>
     <row r="318" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A318" s="21" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="B318" s="22" t="s">
         <v>739</v>
       </c>
       <c r="C318" s="19" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="D318" s="21"/>
       <c r="E318" s="21" t="s">
@@ -21092,13 +21098,13 @@
     </row>
     <row r="319" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A319" s="21" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="B319" s="22" t="s">
         <v>739</v>
       </c>
       <c r="C319" s="19" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="D319" s="21"/>
       <c r="E319" s="21" t="s">
@@ -21117,13 +21123,13 @@
     </row>
     <row r="320" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A320" s="21" t="s">
-        <v>1886</v>
+        <v>1875</v>
       </c>
       <c r="B320" s="22" t="s">
         <v>739</v>
       </c>
       <c r="C320" s="19" t="s">
-        <v>1885</v>
+        <v>1874</v>
       </c>
       <c r="E320" s="21" t="s">
         <v>19</v>
@@ -21147,7 +21153,7 @@
         <v>740</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>1887</v>
+        <v>1876</v>
       </c>
       <c r="D321" s="27"/>
       <c r="E321" s="27" t="s">
@@ -21266,13 +21272,13 @@
     </row>
     <row r="326" spans="1:9" s="41" customFormat="1">
       <c r="A326" s="21" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="B326" s="22" t="s">
         <v>740</v>
       </c>
       <c r="C326" s="19" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="D326" s="21"/>
       <c r="E326" s="21" t="s">
@@ -21291,13 +21297,13 @@
     </row>
     <row r="327" spans="1:9" s="41" customFormat="1">
       <c r="A327" s="21" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="B327" s="22" t="s">
         <v>740</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="D327" s="21"/>
       <c r="E327" s="21" t="s">
@@ -21316,13 +21322,13 @@
     </row>
     <row r="328" spans="1:9" s="41" customFormat="1">
       <c r="A328" s="21" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="B328" s="22" t="s">
         <v>740</v>
       </c>
       <c r="C328" s="19" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="D328" s="21"/>
       <c r="E328" s="21" t="s">
@@ -21341,13 +21347,13 @@
     </row>
     <row r="329" spans="1:9" s="41" customFormat="1">
       <c r="A329" s="21" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="B329" s="22" t="s">
         <v>740</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="D329" s="21"/>
       <c r="E329" s="21" t="s">
@@ -21366,13 +21372,13 @@
     </row>
     <row r="330" spans="1:9" s="41" customFormat="1">
       <c r="A330" s="21" t="s">
-        <v>1889</v>
+        <v>1878</v>
       </c>
       <c r="B330" s="22" t="s">
         <v>740</v>
       </c>
       <c r="C330" s="19" t="s">
-        <v>1888</v>
+        <v>1877</v>
       </c>
       <c r="E330" s="21" t="s">
         <v>19</v>
@@ -21446,7 +21452,7 @@
         <v>741</v>
       </c>
       <c r="C333" s="19" t="s">
-        <v>1891</v>
+        <v>1880</v>
       </c>
       <c r="D333" s="27"/>
       <c r="E333" s="27" t="s">
@@ -21571,7 +21577,7 @@
         <v>741</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>1892</v>
+        <v>1881</v>
       </c>
       <c r="D338" s="27"/>
       <c r="E338" s="27" t="s">
@@ -21590,13 +21596,13 @@
     </row>
     <row r="339" spans="1:9" s="41" customFormat="1">
       <c r="A339" s="21" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="B339" s="22" t="s">
         <v>741</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="D339" s="21"/>
       <c r="E339" s="21" t="s">
@@ -21615,13 +21621,13 @@
     </row>
     <row r="340" spans="1:9" s="41" customFormat="1">
       <c r="A340" s="21" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="B340" s="22" t="s">
         <v>741</v>
       </c>
       <c r="C340" s="19" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="D340" s="21"/>
       <c r="E340" s="21" t="s">
@@ -21640,13 +21646,13 @@
     </row>
     <row r="341" spans="1:9" s="41" customFormat="1">
       <c r="A341" s="21" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="B341" s="22" t="s">
         <v>741</v>
       </c>
       <c r="C341" s="19" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="D341" s="21"/>
       <c r="E341" s="21" t="s">
@@ -21665,13 +21671,13 @@
     </row>
     <row r="342" spans="1:9" s="41" customFormat="1">
       <c r="A342" s="21" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="B342" s="22" t="s">
         <v>741</v>
       </c>
       <c r="C342" s="19" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="D342" s="21"/>
       <c r="E342" s="21" t="s">
@@ -21690,13 +21696,13 @@
     </row>
     <row r="343" spans="1:9" s="41" customFormat="1">
       <c r="A343" s="21" t="s">
-        <v>1894</v>
+        <v>1883</v>
       </c>
       <c r="B343" s="22" t="s">
         <v>741</v>
       </c>
       <c r="C343" s="19" t="s">
-        <v>1893</v>
+        <v>1882</v>
       </c>
       <c r="E343" s="21" t="s">
         <v>19</v>
@@ -21717,10 +21723,10 @@
         <v>248</v>
       </c>
       <c r="B344" s="22" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="C344" s="19" t="s">
-        <v>1895</v>
+        <v>1884</v>
       </c>
       <c r="D344" s="27"/>
       <c r="E344" s="27" t="s">
@@ -21742,7 +21748,7 @@
         <v>249</v>
       </c>
       <c r="B345" s="22" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="C345" s="29" t="s">
         <v>918</v>
@@ -21767,7 +21773,7 @@
         <v>250</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="C346" s="29" t="s">
         <v>919</v>
@@ -21792,7 +21798,7 @@
         <v>251</v>
       </c>
       <c r="B347" s="22" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="C347" s="29" t="s">
         <v>920</v>
@@ -21817,10 +21823,10 @@
         <v>252</v>
       </c>
       <c r="B348" s="22" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="C348" s="19" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
       <c r="D348" s="27"/>
       <c r="E348" s="27" t="s">
@@ -21842,10 +21848,10 @@
         <v>253</v>
       </c>
       <c r="B349" s="22" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="C349" s="19" t="s">
-        <v>1753</v>
+        <v>1742</v>
       </c>
       <c r="D349" s="27"/>
       <c r="E349" s="27" t="s">
@@ -21864,13 +21870,13 @@
     </row>
     <row r="350" spans="1:9" s="41" customFormat="1">
       <c r="A350" s="21" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="B350" s="22" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="C350" s="19" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="D350" s="21"/>
       <c r="E350" s="21" t="s">
@@ -21889,13 +21895,13 @@
     </row>
     <row r="351" spans="1:9" s="41" customFormat="1">
       <c r="A351" s="21" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="B351" s="22" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="C351" s="19" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="D351" s="21"/>
       <c r="E351" s="21" t="s">
@@ -21914,13 +21920,13 @@
     </row>
     <row r="352" spans="1:9" s="41" customFormat="1">
       <c r="A352" s="21" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="B352" s="22" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="C352" s="19" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="D352" s="21"/>
       <c r="E352" s="21" t="s">
@@ -21939,13 +21945,13 @@
     </row>
     <row r="353" spans="1:9" s="41" customFormat="1">
       <c r="A353" s="21" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="B353" s="22" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="C353" s="19" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="D353" s="21"/>
       <c r="E353" s="21" t="s">
@@ -21964,13 +21970,13 @@
     </row>
     <row r="354" spans="1:9" s="41" customFormat="1">
       <c r="A354" s="21" t="s">
-        <v>1897</v>
+        <v>1886</v>
       </c>
       <c r="B354" s="22" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
       <c r="C354" s="19" t="s">
-        <v>1896</v>
+        <v>1885</v>
       </c>
       <c r="E354" s="21" t="s">
         <v>19</v>
@@ -21991,10 +21997,10 @@
         <v>254</v>
       </c>
       <c r="B355" s="22" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="C355" s="19" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="D355" s="27"/>
       <c r="E355" s="27" t="s">
@@ -22016,10 +22022,10 @@
         <v>255</v>
       </c>
       <c r="B356" s="22" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="C356" s="19" t="s">
-        <v>1899</v>
+        <v>1888</v>
       </c>
       <c r="D356" s="27"/>
       <c r="E356" s="27" t="s">
@@ -22041,10 +22047,10 @@
         <v>256</v>
       </c>
       <c r="B357" s="22" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="C357" s="19" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="D357" s="27"/>
       <c r="E357" s="27" t="s">
@@ -22063,13 +22069,13 @@
     </row>
     <row r="358" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A358" s="21" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="B358" s="22" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="C358" s="19" t="s">
-        <v>1900</v>
+        <v>1889</v>
       </c>
       <c r="D358" s="27"/>
       <c r="E358" s="27" t="s">
@@ -22091,10 +22097,10 @@
         <v>257</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="C359" s="19" t="s">
-        <v>1901</v>
+        <v>1890</v>
       </c>
       <c r="D359" s="27"/>
       <c r="E359" s="27" t="s">
@@ -22113,13 +22119,13 @@
     </row>
     <row r="360" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A360" s="21" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="B360" s="22" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="C360" s="19" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="D360" s="21"/>
       <c r="E360" s="21" t="s">
@@ -22138,13 +22144,13 @@
     </row>
     <row r="361" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A361" s="21" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="B361" s="22" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="D361" s="21"/>
       <c r="E361" s="21" t="s">
@@ -22163,13 +22169,13 @@
     </row>
     <row r="362" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A362" s="21" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="B362" s="22" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="C362" s="19" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="D362" s="21"/>
       <c r="E362" s="21" t="s">
@@ -22188,13 +22194,13 @@
     </row>
     <row r="363" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A363" s="21" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="B363" s="22" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="C363" s="19" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="D363" s="21"/>
       <c r="E363" s="21" t="s">
@@ -22213,13 +22219,13 @@
     </row>
     <row r="364" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A364" s="21" t="s">
-        <v>1903</v>
+        <v>1892</v>
       </c>
       <c r="B364" s="22" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="C364" s="19" t="s">
-        <v>1902</v>
+        <v>1891</v>
       </c>
       <c r="E364" s="21" t="s">
         <v>19</v>
@@ -22243,7 +22249,7 @@
         <v>742</v>
       </c>
       <c r="C365" s="19" t="s">
-        <v>1904</v>
+        <v>1893</v>
       </c>
       <c r="D365" s="27"/>
       <c r="E365" s="27" t="s">
@@ -22387,13 +22393,13 @@
     </row>
     <row r="371" spans="1:9" s="41" customFormat="1">
       <c r="A371" s="21" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="B371" s="22" t="s">
         <v>742</v>
       </c>
       <c r="C371" s="19" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="D371" s="21"/>
       <c r="E371" s="21" t="s">
@@ -22412,13 +22418,13 @@
     </row>
     <row r="372" spans="1:9" s="41" customFormat="1">
       <c r="A372" s="21" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="B372" s="22" t="s">
         <v>742</v>
       </c>
       <c r="C372" s="19" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="D372" s="21"/>
       <c r="E372" s="21" t="s">
@@ -22437,13 +22443,13 @@
     </row>
     <row r="373" spans="1:9" s="41" customFormat="1">
       <c r="A373" s="21" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="B373" s="22" t="s">
         <v>742</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="D373" s="21"/>
       <c r="E373" s="21" t="s">
@@ -22462,13 +22468,13 @@
     </row>
     <row r="374" spans="1:9" s="41" customFormat="1">
       <c r="A374" s="21" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="B374" s="22" t="s">
         <v>742</v>
       </c>
       <c r="C374" s="19" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="D374" s="21"/>
       <c r="E374" s="21" t="s">
@@ -22487,13 +22493,13 @@
     </row>
     <row r="375" spans="1:9" s="41" customFormat="1">
       <c r="A375" s="21" t="s">
-        <v>1906</v>
+        <v>1895</v>
       </c>
       <c r="B375" s="22" t="s">
         <v>742</v>
       </c>
       <c r="C375" s="19" t="s">
-        <v>1905</v>
+        <v>1894</v>
       </c>
       <c r="E375" s="21" t="s">
         <v>19</v>
@@ -22517,7 +22523,7 @@
         <v>743</v>
       </c>
       <c r="C376" s="19" t="s">
-        <v>1907</v>
+        <v>1896</v>
       </c>
       <c r="D376" s="27"/>
       <c r="E376" s="27" t="s">
@@ -22717,7 +22723,7 @@
         <v>743</v>
       </c>
       <c r="C384" s="19" t="s">
-        <v>1909</v>
+        <v>1898</v>
       </c>
       <c r="D384" s="27"/>
       <c r="E384" s="27" t="s">
@@ -22736,13 +22742,13 @@
     </row>
     <row r="385" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A385" s="21" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="B385" s="22" t="s">
         <v>743</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="D385" s="21"/>
       <c r="E385" s="21" t="s">
@@ -22761,13 +22767,13 @@
     </row>
     <row r="386" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A386" s="21" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="B386" s="22" t="s">
         <v>743</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="D386" s="21"/>
       <c r="E386" s="21" t="s">
@@ -22786,13 +22792,13 @@
     </row>
     <row r="387" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A387" s="21" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="B387" s="22" t="s">
         <v>743</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="D387" s="21"/>
       <c r="E387" s="21" t="s">
@@ -22811,13 +22817,13 @@
     </row>
     <row r="388" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A388" s="21" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="B388" s="22" t="s">
         <v>743</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="D388" s="21"/>
       <c r="E388" s="21" t="s">
@@ -22836,13 +22842,13 @@
     </row>
     <row r="389" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A389" s="21" t="s">
-        <v>1911</v>
+        <v>1900</v>
       </c>
       <c r="B389" s="22" t="s">
         <v>743</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1910</v>
+        <v>1899</v>
       </c>
       <c r="E389" s="21" t="s">
         <v>19</v>
@@ -22866,7 +22872,7 @@
         <v>744</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1908</v>
+        <v>1897</v>
       </c>
       <c r="D390" s="27"/>
       <c r="E390" s="27" t="s">
@@ -23041,7 +23047,7 @@
         <v>744</v>
       </c>
       <c r="C397" s="19" t="s">
-        <v>1912</v>
+        <v>1901</v>
       </c>
       <c r="D397" s="27"/>
       <c r="E397" s="27" t="s">
@@ -23085,13 +23091,13 @@
     </row>
     <row r="399" spans="1:9" s="41" customFormat="1">
       <c r="A399" s="21" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="B399" s="22" t="s">
         <v>744</v>
       </c>
       <c r="C399" s="19" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="D399" s="21"/>
       <c r="E399" s="21" t="s">
@@ -23110,13 +23116,13 @@
     </row>
     <row r="400" spans="1:9" s="41" customFormat="1">
       <c r="A400" s="21" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="B400" s="22" t="s">
         <v>744</v>
       </c>
       <c r="C400" s="19" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="D400" s="21"/>
       <c r="E400" s="21" t="s">
@@ -23135,13 +23141,13 @@
     </row>
     <row r="401" spans="1:9" s="41" customFormat="1">
       <c r="A401" s="21" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="B401" s="22" t="s">
         <v>744</v>
       </c>
       <c r="C401" s="19" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="D401" s="21"/>
       <c r="E401" s="21" t="s">
@@ -23160,13 +23166,13 @@
     </row>
     <row r="402" spans="1:9" s="41" customFormat="1">
       <c r="A402" s="21" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="B402" s="22" t="s">
         <v>744</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="D402" s="21"/>
       <c r="E402" s="21" t="s">
@@ -23185,13 +23191,13 @@
     </row>
     <row r="403" spans="1:9" s="41" customFormat="1">
       <c r="A403" s="21" t="s">
-        <v>1914</v>
+        <v>1903</v>
       </c>
       <c r="B403" s="22" t="s">
         <v>744</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>1913</v>
+        <v>1902</v>
       </c>
       <c r="E403" s="21" t="s">
         <v>19</v>
@@ -23240,7 +23246,7 @@
         <v>745</v>
       </c>
       <c r="C405" s="19" t="s">
-        <v>1915</v>
+        <v>1904</v>
       </c>
       <c r="D405" s="27"/>
       <c r="E405" s="27" t="s">
@@ -23290,7 +23296,7 @@
         <v>745</v>
       </c>
       <c r="C407" s="19" t="s">
-        <v>1916</v>
+        <v>1905</v>
       </c>
       <c r="D407" s="27"/>
       <c r="E407" s="27" t="s">
@@ -23309,13 +23315,13 @@
     </row>
     <row r="408" spans="1:9" s="41" customFormat="1">
       <c r="A408" s="21" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="B408" s="28" t="s">
         <v>745</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="D408" s="21"/>
       <c r="E408" s="21" t="s">
@@ -23334,13 +23340,13 @@
     </row>
     <row r="409" spans="1:9" s="41" customFormat="1">
       <c r="A409" s="21" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="B409" s="28" t="s">
         <v>745</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="D409" s="21"/>
       <c r="E409" s="21" t="s">
@@ -23359,13 +23365,13 @@
     </row>
     <row r="410" spans="1:9" s="41" customFormat="1">
       <c r="A410" s="21" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="B410" s="28" t="s">
         <v>745</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="D410" s="21"/>
       <c r="E410" s="21" t="s">
@@ -23384,13 +23390,13 @@
     </row>
     <row r="411" spans="1:9" s="41" customFormat="1">
       <c r="A411" s="21" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="B411" s="28" t="s">
         <v>745</v>
       </c>
       <c r="C411" s="19" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="D411" s="21"/>
       <c r="E411" s="21" t="s">
@@ -23409,13 +23415,13 @@
     </row>
     <row r="412" spans="1:9" s="41" customFormat="1">
       <c r="A412" s="21" t="s">
-        <v>1918</v>
+        <v>1907</v>
       </c>
       <c r="B412" s="28" t="s">
         <v>745</v>
       </c>
       <c r="C412" s="19" t="s">
-        <v>1917</v>
+        <v>1906</v>
       </c>
       <c r="E412" s="21" t="s">
         <v>19</v>
@@ -23439,7 +23445,7 @@
         <v>746</v>
       </c>
       <c r="C413" s="19" t="s">
-        <v>1919</v>
+        <v>1908</v>
       </c>
       <c r="D413" s="27"/>
       <c r="E413" s="27" t="s">
@@ -23558,13 +23564,13 @@
     </row>
     <row r="418" spans="1:9" s="41" customFormat="1">
       <c r="A418" s="21" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="B418" s="22" t="s">
         <v>746</v>
       </c>
       <c r="C418" s="19" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="D418" s="21"/>
       <c r="E418" s="21" t="s">
@@ -23583,13 +23589,13 @@
     </row>
     <row r="419" spans="1:9" s="41" customFormat="1">
       <c r="A419" s="21" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="B419" s="22" t="s">
         <v>746</v>
       </c>
       <c r="C419" s="19" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="D419" s="21"/>
       <c r="E419" s="21" t="s">
@@ -23608,13 +23614,13 @@
     </row>
     <row r="420" spans="1:9" s="41" customFormat="1">
       <c r="A420" s="21" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="B420" s="22" t="s">
         <v>746</v>
       </c>
       <c r="C420" s="19" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="D420" s="21"/>
       <c r="E420" s="21" t="s">
@@ -23633,13 +23639,13 @@
     </row>
     <row r="421" spans="1:9" s="41" customFormat="1">
       <c r="A421" s="21" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="B421" s="22" t="s">
         <v>746</v>
       </c>
       <c r="C421" s="19" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="D421" s="21"/>
       <c r="E421" s="21" t="s">
@@ -23658,13 +23664,13 @@
     </row>
     <row r="422" spans="1:9" s="41" customFormat="1">
       <c r="A422" s="21" t="s">
-        <v>1921</v>
+        <v>1910</v>
       </c>
       <c r="B422" s="22" t="s">
         <v>746</v>
       </c>
       <c r="C422" s="19" t="s">
-        <v>1920</v>
+        <v>1909</v>
       </c>
       <c r="E422" s="21" t="s">
         <v>19</v>
@@ -23688,7 +23694,7 @@
         <v>747</v>
       </c>
       <c r="C423" s="19" t="s">
-        <v>1922</v>
+        <v>1911</v>
       </c>
       <c r="D423" s="27"/>
       <c r="E423" s="27" t="s">
@@ -23807,13 +23813,13 @@
     </row>
     <row r="428" spans="1:9" s="41" customFormat="1">
       <c r="A428" s="21" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="B428" s="22" t="s">
         <v>747</v>
       </c>
       <c r="C428" s="19" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="D428" s="21"/>
       <c r="E428" s="21" t="s">
@@ -23832,13 +23838,13 @@
     </row>
     <row r="429" spans="1:9" s="41" customFormat="1">
       <c r="A429" s="21" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="B429" s="22" t="s">
         <v>747</v>
       </c>
       <c r="C429" s="19" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="D429" s="21"/>
       <c r="E429" s="21" t="s">
@@ -23857,13 +23863,13 @@
     </row>
     <row r="430" spans="1:9" s="41" customFormat="1">
       <c r="A430" s="21" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="B430" s="22" t="s">
         <v>747</v>
       </c>
       <c r="C430" s="19" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="D430" s="21"/>
       <c r="E430" s="21" t="s">
@@ -23882,13 +23888,13 @@
     </row>
     <row r="431" spans="1:9" s="41" customFormat="1">
       <c r="A431" s="21" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="B431" s="22" t="s">
         <v>747</v>
       </c>
       <c r="C431" s="19" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="D431" s="21"/>
       <c r="E431" s="21" t="s">
@@ -23907,13 +23913,13 @@
     </row>
     <row r="432" spans="1:9" s="41" customFormat="1">
       <c r="A432" s="21" t="s">
-        <v>1924</v>
+        <v>1913</v>
       </c>
       <c r="B432" s="22" t="s">
         <v>747</v>
       </c>
       <c r="C432" s="19" t="s">
-        <v>1923</v>
+        <v>1912</v>
       </c>
       <c r="E432" s="21" t="s">
         <v>19</v>
@@ -23937,7 +23943,7 @@
         <v>748</v>
       </c>
       <c r="C433" s="19" t="s">
-        <v>1946</v>
+        <v>1935</v>
       </c>
       <c r="D433" s="27"/>
       <c r="E433" s="27" t="s">
@@ -24156,13 +24162,13 @@
     </row>
     <row r="442" spans="1:9" s="41" customFormat="1">
       <c r="A442" s="21" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="B442" s="22" t="s">
         <v>748</v>
       </c>
       <c r="C442" s="19" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="D442" s="21"/>
       <c r="E442" s="21" t="s">
@@ -24181,13 +24187,13 @@
     </row>
     <row r="443" spans="1:9" s="41" customFormat="1">
       <c r="A443" s="21" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="B443" s="22" t="s">
         <v>748</v>
       </c>
       <c r="C443" s="19" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="D443" s="21"/>
       <c r="E443" s="21" t="s">
@@ -24206,13 +24212,13 @@
     </row>
     <row r="444" spans="1:9" s="41" customFormat="1">
       <c r="A444" s="21" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="B444" s="22" t="s">
         <v>748</v>
       </c>
       <c r="C444" s="19" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="D444" s="21"/>
       <c r="E444" s="21" t="s">
@@ -24231,13 +24237,13 @@
     </row>
     <row r="445" spans="1:9" s="41" customFormat="1">
       <c r="A445" s="21" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="B445" s="22" t="s">
         <v>748</v>
       </c>
       <c r="C445" s="19" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="D445" s="21"/>
       <c r="E445" s="21" t="s">
@@ -24256,13 +24262,13 @@
     </row>
     <row r="446" spans="1:9" s="41" customFormat="1">
       <c r="A446" s="21" t="s">
-        <v>1926</v>
+        <v>1915</v>
       </c>
       <c r="B446" s="22" t="s">
         <v>748</v>
       </c>
       <c r="C446" s="19" t="s">
-        <v>1925</v>
+        <v>1914</v>
       </c>
       <c r="E446" s="21" t="s">
         <v>19</v>
@@ -24286,7 +24292,7 @@
         <v>749</v>
       </c>
       <c r="C447" s="19" t="s">
-        <v>1927</v>
+        <v>1916</v>
       </c>
       <c r="D447" s="27"/>
       <c r="E447" s="27" t="s">
@@ -24386,7 +24392,7 @@
         <v>749</v>
       </c>
       <c r="C451" s="19" t="s">
-        <v>1928</v>
+        <v>1917</v>
       </c>
       <c r="D451" s="27"/>
       <c r="E451" s="27" t="s">
@@ -24405,13 +24411,13 @@
     </row>
     <row r="452" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A452" s="21" t="s">
-        <v>1930</v>
+        <v>1919</v>
       </c>
       <c r="B452" s="22" t="s">
         <v>749</v>
       </c>
       <c r="C452" s="19" t="s">
-        <v>1931</v>
+        <v>1920</v>
       </c>
       <c r="E452" s="27" t="s">
         <v>19</v>
@@ -24435,7 +24441,7 @@
         <v>749</v>
       </c>
       <c r="C453" s="19" t="s">
-        <v>1929</v>
+        <v>1918</v>
       </c>
       <c r="D453" s="27"/>
       <c r="E453" s="27" t="s">
@@ -24454,13 +24460,13 @@
     </row>
     <row r="454" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A454" s="21" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="B454" s="22" t="s">
         <v>749</v>
       </c>
       <c r="C454" s="19" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="D454" s="21"/>
       <c r="E454" s="21" t="s">
@@ -24479,13 +24485,13 @@
     </row>
     <row r="455" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A455" s="21" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="B455" s="22" t="s">
         <v>749</v>
       </c>
       <c r="C455" s="19" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="D455" s="21"/>
       <c r="E455" s="21" t="s">
@@ -24504,13 +24510,13 @@
     </row>
     <row r="456" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A456" s="21" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="B456" s="22" t="s">
         <v>749</v>
       </c>
       <c r="C456" s="19" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="D456" s="21"/>
       <c r="E456" s="21" t="s">
@@ -24529,13 +24535,13 @@
     </row>
     <row r="457" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A457" s="21" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="B457" s="22" t="s">
         <v>749</v>
       </c>
       <c r="C457" s="19" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="D457" s="21"/>
       <c r="E457" s="21" t="s">
@@ -24554,13 +24560,13 @@
     </row>
     <row r="458" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A458" s="21" t="s">
-        <v>1932</v>
+        <v>1921</v>
       </c>
       <c r="B458" s="22" t="s">
         <v>749</v>
       </c>
       <c r="C458" s="19" t="s">
-        <v>1933</v>
+        <v>1922</v>
       </c>
       <c r="E458" s="21" t="s">
         <v>19</v>
@@ -24584,7 +24590,7 @@
         <v>750</v>
       </c>
       <c r="C459" s="19" t="s">
-        <v>1934</v>
+        <v>1923</v>
       </c>
       <c r="D459" s="27"/>
       <c r="E459" s="27" t="s">
@@ -24828,13 +24834,13 @@
     </row>
     <row r="469" spans="1:9" s="41" customFormat="1">
       <c r="A469" s="21" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="B469" s="22" t="s">
         <v>750</v>
       </c>
       <c r="C469" s="19" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="D469" s="21"/>
       <c r="E469" s="21" t="s">
@@ -24853,13 +24859,13 @@
     </row>
     <row r="470" spans="1:9" s="41" customFormat="1">
       <c r="A470" s="21" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="B470" s="22" t="s">
         <v>750</v>
       </c>
       <c r="C470" s="19" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="D470" s="21"/>
       <c r="E470" s="21" t="s">
@@ -24878,13 +24884,13 @@
     </row>
     <row r="471" spans="1:9" s="41" customFormat="1">
       <c r="A471" s="21" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="B471" s="22" t="s">
         <v>750</v>
       </c>
       <c r="C471" s="19" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="D471" s="21"/>
       <c r="E471" s="21" t="s">
@@ -24903,13 +24909,13 @@
     </row>
     <row r="472" spans="1:9" s="41" customFormat="1">
       <c r="A472" s="21" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="B472" s="22" t="s">
         <v>750</v>
       </c>
       <c r="C472" s="19" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="D472" s="21"/>
       <c r="E472" s="21" t="s">
@@ -24928,13 +24934,13 @@
     </row>
     <row r="473" spans="1:9" s="41" customFormat="1">
       <c r="A473" s="21" t="s">
-        <v>1935</v>
+        <v>1924</v>
       </c>
       <c r="B473" s="22" t="s">
         <v>750</v>
       </c>
       <c r="C473" s="19" t="s">
-        <v>1936</v>
+        <v>1925</v>
       </c>
       <c r="E473" s="21" t="s">
         <v>19</v>
@@ -24958,7 +24964,7 @@
         <v>751</v>
       </c>
       <c r="C474" s="19" t="s">
-        <v>1937</v>
+        <v>1926</v>
       </c>
       <c r="D474" s="27"/>
       <c r="E474" s="27" t="s">
@@ -25033,7 +25039,7 @@
         <v>751</v>
       </c>
       <c r="C477" s="19" t="s">
-        <v>1943</v>
+        <v>1932</v>
       </c>
       <c r="D477" s="27"/>
       <c r="E477" s="27" t="s">
@@ -25127,13 +25133,13 @@
     </row>
     <row r="481" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A481" s="21" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="B481" s="22" t="s">
         <v>751</v>
       </c>
       <c r="C481" s="19" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="D481" s="21"/>
       <c r="E481" s="21" t="s">
@@ -25152,13 +25158,13 @@
     </row>
     <row r="482" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A482" s="21" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="B482" s="22" t="s">
         <v>751</v>
       </c>
       <c r="C482" s="19" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="D482" s="21"/>
       <c r="E482" s="21" t="s">
@@ -25177,13 +25183,13 @@
     </row>
     <row r="483" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A483" s="21" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="B483" s="22" t="s">
         <v>751</v>
       </c>
       <c r="C483" s="19" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="D483" s="21"/>
       <c r="E483" s="21" t="s">
@@ -25202,13 +25208,13 @@
     </row>
     <row r="484" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A484" s="21" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="B484" s="22" t="s">
         <v>751</v>
       </c>
       <c r="C484" s="19" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="D484" s="21"/>
       <c r="E484" s="21" t="s">
@@ -25227,13 +25233,13 @@
     </row>
     <row r="485" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A485" s="21" t="s">
-        <v>1939</v>
+        <v>1928</v>
       </c>
       <c r="B485" s="22" t="s">
         <v>751</v>
       </c>
       <c r="C485" s="19" t="s">
-        <v>1938</v>
+        <v>1927</v>
       </c>
       <c r="E485" s="21" t="s">
         <v>19</v>
@@ -25257,7 +25263,7 @@
         <v>752</v>
       </c>
       <c r="C486" s="19" t="s">
-        <v>1940</v>
+        <v>1929</v>
       </c>
       <c r="D486" s="27"/>
       <c r="E486" s="27" t="s">
@@ -25282,7 +25288,7 @@
         <v>752</v>
       </c>
       <c r="C487" s="19" t="s">
-        <v>1941</v>
+        <v>1930</v>
       </c>
       <c r="D487" s="27"/>
       <c r="E487" s="27" t="s">
@@ -25332,7 +25338,7 @@
         <v>752</v>
       </c>
       <c r="C489" s="19" t="s">
-        <v>1942</v>
+        <v>1931</v>
       </c>
       <c r="D489" s="27"/>
       <c r="E489" s="27" t="s">
@@ -25426,13 +25432,13 @@
     </row>
     <row r="493" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A493" s="21" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="B493" s="22" t="s">
         <v>752</v>
       </c>
       <c r="C493" s="19" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="D493" s="21"/>
       <c r="E493" s="21" t="s">
@@ -25451,13 +25457,13 @@
     </row>
     <row r="494" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A494" s="21" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="B494" s="22" t="s">
         <v>752</v>
       </c>
       <c r="C494" s="19" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="D494" s="21"/>
       <c r="E494" s="21" t="s">
@@ -25476,13 +25482,13 @@
     </row>
     <row r="495" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A495" s="21" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="B495" s="22" t="s">
         <v>752</v>
       </c>
       <c r="C495" s="19" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="D495" s="21"/>
       <c r="E495" s="21" t="s">
@@ -25501,13 +25507,13 @@
     </row>
     <row r="496" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A496" s="21" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="B496" s="22" t="s">
         <v>752</v>
       </c>
       <c r="C496" s="19" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="D496" s="21"/>
       <c r="E496" s="21" t="s">
@@ -25526,13 +25532,13 @@
     </row>
     <row r="497" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A497" s="21" t="s">
-        <v>1945</v>
+        <v>1934</v>
       </c>
       <c r="B497" s="22" t="s">
         <v>752</v>
       </c>
       <c r="C497" s="19" t="s">
-        <v>1944</v>
+        <v>1933</v>
       </c>
       <c r="E497" s="21" t="s">
         <v>19</v>
@@ -25556,7 +25562,7 @@
         <v>753</v>
       </c>
       <c r="C498" s="19" t="s">
-        <v>1947</v>
+        <v>1936</v>
       </c>
       <c r="D498" s="27"/>
       <c r="E498" s="27" t="s">
@@ -25675,13 +25681,13 @@
     </row>
     <row r="503" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A503" s="21" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="B503" s="22" t="s">
         <v>753</v>
       </c>
       <c r="C503" s="19" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="D503" s="21"/>
       <c r="E503" s="21" t="s">
@@ -25700,13 +25706,13 @@
     </row>
     <row r="504" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A504" s="21" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="B504" s="22" t="s">
         <v>753</v>
       </c>
       <c r="C504" s="19" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="D504" s="21"/>
       <c r="E504" s="21" t="s">
@@ -25725,13 +25731,13 @@
     </row>
     <row r="505" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A505" s="21" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="B505" s="22" t="s">
         <v>753</v>
       </c>
       <c r="C505" s="19" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="D505" s="21"/>
       <c r="E505" s="21" t="s">
@@ -25750,13 +25756,13 @@
     </row>
     <row r="506" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A506" s="21" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="B506" s="22" t="s">
         <v>753</v>
       </c>
       <c r="C506" s="19" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="D506" s="21"/>
       <c r="E506" s="21" t="s">
@@ -25775,13 +25781,13 @@
     </row>
     <row r="507" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A507" s="21" t="s">
-        <v>1949</v>
+        <v>1938</v>
       </c>
       <c r="B507" s="22" t="s">
         <v>753</v>
       </c>
       <c r="C507" s="19" t="s">
-        <v>1948</v>
+        <v>1937</v>
       </c>
       <c r="E507" s="21" t="s">
         <v>19</v>
@@ -25805,7 +25811,7 @@
         <v>754</v>
       </c>
       <c r="C508" s="19" t="s">
-        <v>1950</v>
+        <v>1939</v>
       </c>
       <c r="D508" s="27"/>
       <c r="E508" s="27" t="s">
@@ -25974,13 +25980,13 @@
     </row>
     <row r="515" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A515" s="21" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="B515" s="22" t="s">
         <v>754</v>
       </c>
       <c r="C515" s="19" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="D515" s="21"/>
       <c r="E515" s="21" t="s">
@@ -25999,13 +26005,13 @@
     </row>
     <row r="516" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A516" s="21" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="B516" s="22" t="s">
         <v>754</v>
       </c>
       <c r="C516" s="19" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="D516" s="21"/>
       <c r="E516" s="21" t="s">
@@ -26024,13 +26030,13 @@
     </row>
     <row r="517" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A517" s="21" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="B517" s="22" t="s">
         <v>754</v>
       </c>
       <c r="C517" s="19" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="D517" s="21"/>
       <c r="E517" s="21" t="s">
@@ -26049,13 +26055,13 @@
     </row>
     <row r="518" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A518" s="21" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="B518" s="22" t="s">
         <v>754</v>
       </c>
       <c r="C518" s="19" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="D518" s="21"/>
       <c r="E518" s="21" t="s">
@@ -26074,13 +26080,13 @@
     </row>
     <row r="519" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A519" s="21" t="s">
-        <v>1952</v>
+        <v>1941</v>
       </c>
       <c r="B519" s="22" t="s">
         <v>754</v>
       </c>
       <c r="C519" s="19" t="s">
-        <v>1951</v>
+        <v>1940</v>
       </c>
       <c r="E519" s="21" t="s">
         <v>19</v>
@@ -26104,7 +26110,7 @@
         <v>755</v>
       </c>
       <c r="C520" s="19" t="s">
-        <v>1953</v>
+        <v>1942</v>
       </c>
       <c r="D520" s="27"/>
       <c r="E520" s="27" t="s">
@@ -26229,7 +26235,7 @@
         <v>755</v>
       </c>
       <c r="C525" s="19" t="s">
-        <v>1954</v>
+        <v>1943</v>
       </c>
       <c r="D525" s="27"/>
       <c r="E525" s="27" t="s">
@@ -26248,13 +26254,13 @@
     </row>
     <row r="526" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A526" s="21" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="B526" s="22" t="s">
         <v>755</v>
       </c>
       <c r="C526" s="19" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="D526" s="21"/>
       <c r="E526" s="21" t="s">
@@ -26273,13 +26279,13 @@
     </row>
     <row r="527" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A527" s="21" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="B527" s="22" t="s">
         <v>755</v>
       </c>
       <c r="C527" s="19" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="D527" s="21"/>
       <c r="E527" s="21" t="s">
@@ -26298,13 +26304,13 @@
     </row>
     <row r="528" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A528" s="21" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="B528" s="22" t="s">
         <v>755</v>
       </c>
       <c r="C528" s="19" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="D528" s="21"/>
       <c r="E528" s="21" t="s">
@@ -26323,13 +26329,13 @@
     </row>
     <row r="529" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A529" s="21" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="B529" s="22" t="s">
         <v>755</v>
       </c>
       <c r="C529" s="19" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="D529" s="21"/>
       <c r="E529" s="21" t="s">
@@ -26348,13 +26354,13 @@
     </row>
     <row r="530" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A530" s="21" t="s">
-        <v>1956</v>
+        <v>1945</v>
       </c>
       <c r="B530" s="22" t="s">
         <v>755</v>
       </c>
       <c r="C530" s="19" t="s">
-        <v>1955</v>
+        <v>1944</v>
       </c>
       <c r="E530" s="21" t="s">
         <v>19</v>
@@ -26378,7 +26384,7 @@
         <v>756</v>
       </c>
       <c r="C531" s="19" t="s">
-        <v>1957</v>
+        <v>1946</v>
       </c>
       <c r="D531" s="27"/>
       <c r="E531" s="27" t="s">
@@ -26653,7 +26659,7 @@
         <v>756</v>
       </c>
       <c r="C542" s="19" t="s">
-        <v>1958</v>
+        <v>1947</v>
       </c>
       <c r="D542" s="27"/>
       <c r="E542" s="27" t="s">
@@ -26697,13 +26703,13 @@
     </row>
     <row r="544" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A544" s="21" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="B544" s="22" t="s">
         <v>756</v>
       </c>
       <c r="C544" s="19" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="D544" s="21"/>
       <c r="E544" s="21" t="s">
@@ -26722,13 +26728,13 @@
     </row>
     <row r="545" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A545" s="21" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="B545" s="22" t="s">
         <v>756</v>
       </c>
       <c r="C545" s="19" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="D545" s="21"/>
       <c r="E545" s="21" t="s">
@@ -26747,13 +26753,13 @@
     </row>
     <row r="546" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A546" s="21" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="B546" s="22" t="s">
         <v>756</v>
       </c>
       <c r="C546" s="19" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="D546" s="21"/>
       <c r="E546" s="21" t="s">
@@ -26772,13 +26778,13 @@
     </row>
     <row r="547" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A547" s="21" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="B547" s="22" t="s">
         <v>756</v>
       </c>
       <c r="C547" s="19" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="D547" s="21"/>
       <c r="E547" s="21" t="s">
@@ -26797,13 +26803,13 @@
     </row>
     <row r="548" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A548" s="21" t="s">
-        <v>1960</v>
+        <v>1949</v>
       </c>
       <c r="B548" s="22" t="s">
         <v>756</v>
       </c>
       <c r="C548" s="19" t="s">
-        <v>1959</v>
+        <v>1948</v>
       </c>
       <c r="E548" s="21" t="s">
         <v>19</v>
@@ -26852,7 +26858,7 @@
         <v>757</v>
       </c>
       <c r="C550" s="19" t="s">
-        <v>1961</v>
+        <v>1950</v>
       </c>
       <c r="D550" s="27"/>
       <c r="E550" s="27" t="s">
@@ -26877,7 +26883,7 @@
         <v>757</v>
       </c>
       <c r="C551" s="19" t="s">
-        <v>1962</v>
+        <v>1951</v>
       </c>
       <c r="D551" s="27"/>
       <c r="E551" s="27" t="s">
@@ -26896,13 +26902,13 @@
     </row>
     <row r="552" spans="1:9" s="41" customFormat="1">
       <c r="A552" s="21" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="B552" s="22" t="s">
         <v>757</v>
       </c>
       <c r="C552" s="19" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="D552" s="21"/>
       <c r="E552" s="21" t="s">
@@ -26921,13 +26927,13 @@
     </row>
     <row r="553" spans="1:9" s="41" customFormat="1">
       <c r="A553" s="21" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="B553" s="22" t="s">
         <v>757</v>
       </c>
       <c r="C553" s="19" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="D553" s="21"/>
       <c r="E553" s="21" t="s">
@@ -26946,13 +26952,13 @@
     </row>
     <row r="554" spans="1:9" s="41" customFormat="1">
       <c r="A554" s="21" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="B554" s="22" t="s">
         <v>757</v>
       </c>
       <c r="C554" s="19" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="D554" s="21"/>
       <c r="E554" s="21" t="s">
@@ -26971,13 +26977,13 @@
     </row>
     <row r="555" spans="1:9" s="41" customFormat="1">
       <c r="A555" s="21" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="B555" s="22" t="s">
         <v>757</v>
       </c>
       <c r="C555" s="19" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="D555" s="21"/>
       <c r="E555" s="21" t="s">
@@ -26996,13 +27002,13 @@
     </row>
     <row r="556" spans="1:9" s="41" customFormat="1">
       <c r="A556" s="21" t="s">
-        <v>1964</v>
+        <v>1953</v>
       </c>
       <c r="B556" s="22" t="s">
         <v>757</v>
       </c>
       <c r="C556" s="19" t="s">
-        <v>1963</v>
+        <v>1952</v>
       </c>
       <c r="E556" s="21" t="s">
         <v>19</v>
@@ -27051,7 +27057,7 @@
         <v>758</v>
       </c>
       <c r="C558" s="19" t="s">
-        <v>1965</v>
+        <v>1954</v>
       </c>
       <c r="D558" s="27"/>
       <c r="E558" s="27" t="s">
@@ -27101,7 +27107,7 @@
         <v>758</v>
       </c>
       <c r="C560" s="19" t="s">
-        <v>1966</v>
+        <v>1955</v>
       </c>
       <c r="D560" s="27"/>
       <c r="E560" s="27" t="s">
@@ -27126,7 +27132,7 @@
         <v>758</v>
       </c>
       <c r="C561" s="19" t="s">
-        <v>1967</v>
+        <v>1956</v>
       </c>
       <c r="D561" s="27"/>
       <c r="E561" s="27" t="s">
@@ -27151,7 +27157,7 @@
         <v>758</v>
       </c>
       <c r="C562" s="19" t="s">
-        <v>1968</v>
+        <v>1957</v>
       </c>
       <c r="D562" s="27"/>
       <c r="E562" s="27" t="s">
@@ -27176,7 +27182,7 @@
         <v>758</v>
       </c>
       <c r="C563" s="19" t="s">
-        <v>1969</v>
+        <v>1958</v>
       </c>
       <c r="D563" s="27"/>
       <c r="E563" s="27" t="s">
@@ -27195,13 +27201,13 @@
     </row>
     <row r="564" spans="1:9" s="41" customFormat="1">
       <c r="A564" s="21" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="B564" s="22" t="s">
         <v>758</v>
       </c>
       <c r="C564" s="19" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="D564" s="21"/>
       <c r="E564" s="21" t="s">
@@ -27220,13 +27226,13 @@
     </row>
     <row r="565" spans="1:9" s="41" customFormat="1">
       <c r="A565" s="21" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="B565" s="22" t="s">
         <v>758</v>
       </c>
       <c r="C565" s="19" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="D565" s="21"/>
       <c r="E565" s="21" t="s">
@@ -27245,13 +27251,13 @@
     </row>
     <row r="566" spans="1:9" s="41" customFormat="1">
       <c r="A566" s="21" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="B566" s="22" t="s">
         <v>758</v>
       </c>
       <c r="C566" s="19" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="D566" s="21"/>
       <c r="E566" s="21" t="s">
@@ -27270,13 +27276,13 @@
     </row>
     <row r="567" spans="1:9" s="41" customFormat="1">
       <c r="A567" s="21" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="B567" s="22" t="s">
         <v>758</v>
       </c>
       <c r="C567" s="19" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="D567" s="21"/>
       <c r="E567" s="21" t="s">
@@ -27295,13 +27301,13 @@
     </row>
     <row r="568" spans="1:9" s="41" customFormat="1">
       <c r="A568" s="21" t="s">
-        <v>1971</v>
+        <v>1960</v>
       </c>
       <c r="B568" s="22" t="s">
         <v>758</v>
       </c>
       <c r="C568" s="19" t="s">
-        <v>1970</v>
+        <v>1959</v>
       </c>
       <c r="E568" s="21" t="s">
         <v>19</v>
@@ -27325,7 +27331,7 @@
         <v>759</v>
       </c>
       <c r="C569" s="19" t="s">
-        <v>1972</v>
+        <v>1961</v>
       </c>
       <c r="D569" s="27"/>
       <c r="E569" s="27" t="s">
@@ -27350,7 +27356,7 @@
         <v>759</v>
       </c>
       <c r="C570" s="19" t="s">
-        <v>1973</v>
+        <v>1962</v>
       </c>
       <c r="D570" s="27"/>
       <c r="E570" s="27" t="s">
@@ -27391,7 +27397,7 @@
         <v>17</v>
       </c>
       <c r="I571" s="29" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="572" spans="1:9" s="41" customFormat="1" ht="28.8">
@@ -27471,13 +27477,13 @@
     </row>
     <row r="575" spans="1:9" s="41" customFormat="1">
       <c r="A575" s="21" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="B575" s="22" t="s">
         <v>759</v>
       </c>
       <c r="C575" s="19" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="D575" s="21"/>
       <c r="E575" s="21" t="s">
@@ -27496,13 +27502,13 @@
     </row>
     <row r="576" spans="1:9" s="41" customFormat="1">
       <c r="A576" s="21" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="B576" s="22" t="s">
         <v>759</v>
       </c>
       <c r="C576" s="19" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="D576" s="21"/>
       <c r="E576" s="21" t="s">
@@ -27521,13 +27527,13 @@
     </row>
     <row r="577" spans="1:9" s="41" customFormat="1">
       <c r="A577" s="21" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="B577" s="22" t="s">
         <v>759</v>
       </c>
       <c r="C577" s="19" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="D577" s="21"/>
       <c r="E577" s="21" t="s">
@@ -27546,13 +27552,13 @@
     </row>
     <row r="578" spans="1:9" s="41" customFormat="1">
       <c r="A578" s="21" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="B578" s="22" t="s">
         <v>759</v>
       </c>
       <c r="C578" s="19" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="D578" s="21"/>
       <c r="E578" s="21" t="s">
@@ -27571,13 +27577,13 @@
     </row>
     <row r="579" spans="1:9" s="41" customFormat="1">
       <c r="A579" s="21" t="s">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="B579" s="22" t="s">
         <v>759</v>
       </c>
       <c r="C579" s="19" t="s">
-        <v>1974</v>
+        <v>1963</v>
       </c>
       <c r="E579" s="21" t="s">
         <v>19</v>
@@ -27601,7 +27607,7 @@
         <v>760</v>
       </c>
       <c r="C580" s="19" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
       <c r="D580" s="27"/>
       <c r="E580" s="27" t="s">
@@ -27651,7 +27657,7 @@
         <v>760</v>
       </c>
       <c r="C582" s="19" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="D582" s="27"/>
       <c r="E582" s="27" t="s">
@@ -27670,13 +27676,13 @@
     </row>
     <row r="583" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A583" s="21" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="B583" s="22" t="s">
         <v>760</v>
       </c>
       <c r="C583" s="19" t="s">
-        <v>1977</v>
+        <v>1966</v>
       </c>
       <c r="D583" s="27"/>
       <c r="E583" s="21" t="s">
@@ -27695,13 +27701,13 @@
     </row>
     <row r="584" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A584" s="21" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="B584" s="22" t="s">
         <v>760</v>
       </c>
       <c r="C584" s="19" t="s">
-        <v>1978</v>
+        <v>1967</v>
       </c>
       <c r="D584" s="27"/>
       <c r="E584" s="21" t="s">
@@ -27720,13 +27726,13 @@
     </row>
     <row r="585" spans="1:9" s="41" customFormat="1">
       <c r="A585" s="21" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="B585" s="22" t="s">
         <v>760</v>
       </c>
       <c r="C585" s="19" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="D585" s="21"/>
       <c r="E585" s="21" t="s">
@@ -27745,13 +27751,13 @@
     </row>
     <row r="586" spans="1:9" s="41" customFormat="1">
       <c r="A586" s="21" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="B586" s="22" t="s">
         <v>760</v>
       </c>
       <c r="C586" s="19" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="D586" s="21"/>
       <c r="E586" s="21" t="s">
@@ -27770,13 +27776,13 @@
     </row>
     <row r="587" spans="1:9" s="41" customFormat="1">
       <c r="A587" s="21" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="B587" s="22" t="s">
         <v>760</v>
       </c>
       <c r="C587" s="19" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="D587" s="21"/>
       <c r="E587" s="21" t="s">
@@ -27795,13 +27801,13 @@
     </row>
     <row r="588" spans="1:9" s="41" customFormat="1">
       <c r="A588" s="21" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="B588" s="22" t="s">
         <v>760</v>
       </c>
       <c r="C588" s="19" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="D588" s="21"/>
       <c r="E588" s="21" t="s">
@@ -27820,13 +27826,13 @@
     </row>
     <row r="589" spans="1:9" s="41" customFormat="1">
       <c r="A589" s="21" t="s">
-        <v>1980</v>
+        <v>1969</v>
       </c>
       <c r="B589" s="22" t="s">
         <v>760</v>
       </c>
       <c r="C589" s="19" t="s">
-        <v>1979</v>
+        <v>1968</v>
       </c>
       <c r="E589" s="21" t="s">
         <v>19</v>
@@ -27844,13 +27850,13 @@
     </row>
     <row r="590" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A590" s="21" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="B590" s="22" t="s">
         <v>760</v>
       </c>
       <c r="C590" s="19" t="s">
-        <v>1981</v>
+        <v>1970</v>
       </c>
       <c r="D590" s="27"/>
       <c r="E590" s="21" t="s">
@@ -27900,7 +27906,7 @@
         <v>761</v>
       </c>
       <c r="C592" s="19" t="s">
-        <v>1982</v>
+        <v>1971</v>
       </c>
       <c r="D592" s="27"/>
       <c r="E592" s="27" t="s">
@@ -27919,13 +27925,13 @@
     </row>
     <row r="593" spans="1:9" s="41" customFormat="1">
       <c r="A593" s="21" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="B593" s="22" t="s">
         <v>761</v>
       </c>
       <c r="C593" s="19" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="D593" s="21"/>
       <c r="E593" s="21" t="s">
@@ -27944,13 +27950,13 @@
     </row>
     <row r="594" spans="1:9" s="41" customFormat="1">
       <c r="A594" s="21" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="B594" s="22" t="s">
         <v>761</v>
       </c>
       <c r="C594" s="19" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="D594" s="21"/>
       <c r="E594" s="21" t="s">
@@ -27969,13 +27975,13 @@
     </row>
     <row r="595" spans="1:9" s="41" customFormat="1">
       <c r="A595" s="21" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="B595" s="22" t="s">
         <v>761</v>
       </c>
       <c r="C595" s="19" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="D595" s="21"/>
       <c r="E595" s="21" t="s">
@@ -27994,13 +28000,13 @@
     </row>
     <row r="596" spans="1:9" s="41" customFormat="1">
       <c r="A596" s="21" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="B596" s="22" t="s">
         <v>761</v>
       </c>
       <c r="C596" s="19" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="D596" s="21"/>
       <c r="E596" s="21" t="s">
@@ -28019,13 +28025,13 @@
     </row>
     <row r="597" spans="1:9" s="41" customFormat="1">
       <c r="A597" s="21" t="s">
-        <v>1984</v>
+        <v>1973</v>
       </c>
       <c r="B597" s="22" t="s">
         <v>761</v>
       </c>
       <c r="C597" s="19" t="s">
-        <v>1983</v>
+        <v>1972</v>
       </c>
       <c r="E597" s="21" t="s">
         <v>19</v>
@@ -28124,7 +28130,7 @@
         <v>762</v>
       </c>
       <c r="C601" s="19" t="s">
-        <v>1985</v>
+        <v>1974</v>
       </c>
       <c r="D601" s="27"/>
       <c r="E601" s="27" t="s">
@@ -28149,7 +28155,7 @@
         <v>762</v>
       </c>
       <c r="C602" s="19" t="s">
-        <v>1986</v>
+        <v>1975</v>
       </c>
       <c r="D602" s="27"/>
       <c r="E602" s="27" t="s">
@@ -28168,13 +28174,13 @@
     </row>
     <row r="603" spans="1:9" s="41" customFormat="1">
       <c r="A603" s="21" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="B603" s="22" t="s">
         <v>762</v>
       </c>
       <c r="C603" s="19" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="D603" s="21"/>
       <c r="E603" s="21" t="s">
@@ -28193,13 +28199,13 @@
     </row>
     <row r="604" spans="1:9" s="41" customFormat="1">
       <c r="A604" s="21" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="B604" s="22" t="s">
         <v>762</v>
       </c>
       <c r="C604" s="19" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="D604" s="21"/>
       <c r="E604" s="21" t="s">
@@ -28218,13 +28224,13 @@
     </row>
     <row r="605" spans="1:9" s="41" customFormat="1">
       <c r="A605" s="21" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="B605" s="22" t="s">
         <v>762</v>
       </c>
       <c r="C605" s="19" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="D605" s="21"/>
       <c r="E605" s="21" t="s">
@@ -28243,13 +28249,13 @@
     </row>
     <row r="606" spans="1:9" s="41" customFormat="1">
       <c r="A606" s="21" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="B606" s="22" t="s">
         <v>762</v>
       </c>
       <c r="C606" s="19" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="D606" s="21"/>
       <c r="E606" s="21" t="s">
@@ -28268,13 +28274,13 @@
     </row>
     <row r="607" spans="1:9" s="41" customFormat="1">
       <c r="A607" s="21" t="s">
-        <v>1987</v>
+        <v>1976</v>
       </c>
       <c r="B607" s="22" t="s">
         <v>762</v>
       </c>
       <c r="C607" s="19" t="s">
-        <v>1312</v>
+        <v>2158</v>
       </c>
       <c r="E607" s="21" t="s">
         <v>19</v>
@@ -28298,7 +28304,7 @@
         <v>763</v>
       </c>
       <c r="C608" s="19" t="s">
-        <v>1988</v>
+        <v>1977</v>
       </c>
       <c r="D608" s="27"/>
       <c r="E608" s="27" t="s">
@@ -28442,13 +28448,13 @@
     </row>
     <row r="614" spans="1:9" s="41" customFormat="1">
       <c r="A614" s="21" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="B614" s="22" t="s">
         <v>763</v>
       </c>
       <c r="C614" s="19" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="D614" s="21"/>
       <c r="E614" s="21" t="s">
@@ -28467,13 +28473,13 @@
     </row>
     <row r="615" spans="1:9" s="41" customFormat="1">
       <c r="A615" s="21" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="B615" s="22" t="s">
         <v>763</v>
       </c>
       <c r="C615" s="19" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="D615" s="21"/>
       <c r="E615" s="21" t="s">
@@ -28492,13 +28498,13 @@
     </row>
     <row r="616" spans="1:9" s="41" customFormat="1">
       <c r="A616" s="21" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="B616" s="22" t="s">
         <v>763</v>
       </c>
       <c r="C616" s="19" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="D616" s="21"/>
       <c r="E616" s="21" t="s">
@@ -28517,13 +28523,13 @@
     </row>
     <row r="617" spans="1:9" s="41" customFormat="1">
       <c r="A617" s="21" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="B617" s="22" t="s">
         <v>763</v>
       </c>
       <c r="C617" s="19" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="D617" s="21"/>
       <c r="E617" s="21" t="s">
@@ -28542,13 +28548,13 @@
     </row>
     <row r="618" spans="1:9" s="41" customFormat="1">
       <c r="A618" s="21" t="s">
-        <v>1989</v>
+        <v>1978</v>
       </c>
       <c r="B618" s="22" t="s">
         <v>763</v>
       </c>
       <c r="C618" s="19" t="s">
-        <v>1309</v>
+        <v>2157</v>
       </c>
       <c r="E618" s="21" t="s">
         <v>19</v>
@@ -28572,7 +28578,7 @@
         <v>764</v>
       </c>
       <c r="C619" s="19" t="s">
-        <v>1990</v>
+        <v>1979</v>
       </c>
       <c r="D619" s="27"/>
       <c r="E619" s="27" t="s">
@@ -28716,13 +28722,13 @@
     </row>
     <row r="625" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A625" s="21" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="B625" s="22" t="s">
         <v>764</v>
       </c>
       <c r="C625" s="19" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="D625" s="21"/>
       <c r="E625" s="21" t="s">
@@ -28741,13 +28747,13 @@
     </row>
     <row r="626" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A626" s="21" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="B626" s="22" t="s">
         <v>764</v>
       </c>
       <c r="C626" s="19" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="D626" s="21"/>
       <c r="E626" s="21" t="s">
@@ -28766,13 +28772,13 @@
     </row>
     <row r="627" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A627" s="21" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="B627" s="22" t="s">
         <v>764</v>
       </c>
       <c r="C627" s="19" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="D627" s="21"/>
       <c r="E627" s="21" t="s">
@@ -28791,13 +28797,13 @@
     </row>
     <row r="628" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A628" s="21" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="B628" s="22" t="s">
         <v>764</v>
       </c>
       <c r="C628" s="19" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="D628" s="21"/>
       <c r="E628" s="21" t="s">
@@ -28816,13 +28822,13 @@
     </row>
     <row r="629" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A629" s="21" t="s">
-        <v>1992</v>
+        <v>1981</v>
       </c>
       <c r="B629" s="22" t="s">
         <v>764</v>
       </c>
       <c r="C629" s="19" t="s">
-        <v>1991</v>
+        <v>1980</v>
       </c>
       <c r="E629" s="21" t="s">
         <v>19</v>
@@ -28846,7 +28852,7 @@
         <v>765</v>
       </c>
       <c r="C630" s="19" t="s">
-        <v>1993</v>
+        <v>1982</v>
       </c>
       <c r="D630" s="27"/>
       <c r="E630" s="27" t="s">
@@ -29065,13 +29071,13 @@
     </row>
     <row r="639" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A639" s="21" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="B639" s="22" t="s">
         <v>765</v>
       </c>
       <c r="C639" s="19" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="D639" s="21"/>
       <c r="E639" s="21" t="s">
@@ -29090,13 +29096,13 @@
     </row>
     <row r="640" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A640" s="21" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="B640" s="22" t="s">
         <v>765</v>
       </c>
       <c r="C640" s="19" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="D640" s="21"/>
       <c r="E640" s="21" t="s">
@@ -29115,13 +29121,13 @@
     </row>
     <row r="641" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A641" s="21" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="B641" s="22" t="s">
         <v>765</v>
       </c>
       <c r="C641" s="19" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="D641" s="21"/>
       <c r="E641" s="21" t="s">
@@ -29140,13 +29146,13 @@
     </row>
     <row r="642" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A642" s="21" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="B642" s="22" t="s">
         <v>765</v>
       </c>
       <c r="C642" s="19" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="D642" s="21"/>
       <c r="E642" s="21" t="s">
@@ -29165,13 +29171,13 @@
     </row>
     <row r="643" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A643" s="21" t="s">
-        <v>1995</v>
+        <v>1984</v>
       </c>
       <c r="B643" s="22" t="s">
         <v>765</v>
       </c>
       <c r="C643" s="19" t="s">
-        <v>1994</v>
+        <v>1983</v>
       </c>
       <c r="E643" s="21" t="s">
         <v>19</v>
@@ -29195,7 +29201,7 @@
         <v>766</v>
       </c>
       <c r="C644" s="19" t="s">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="D644" s="27"/>
       <c r="E644" s="27" t="s">
@@ -29339,13 +29345,13 @@
     </row>
     <row r="650" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A650" s="21" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="B650" s="22" t="s">
         <v>766</v>
       </c>
       <c r="C650" s="19" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="D650" s="21"/>
       <c r="E650" s="21" t="s">
@@ -29364,13 +29370,13 @@
     </row>
     <row r="651" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A651" s="21" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="B651" s="22" t="s">
         <v>766</v>
       </c>
       <c r="C651" s="19" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="D651" s="21"/>
       <c r="E651" s="21" t="s">
@@ -29389,13 +29395,13 @@
     </row>
     <row r="652" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A652" s="21" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="B652" s="22" t="s">
         <v>766</v>
       </c>
       <c r="C652" s="19" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="D652" s="21"/>
       <c r="E652" s="21" t="s">
@@ -29414,13 +29420,13 @@
     </row>
     <row r="653" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A653" s="21" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="B653" s="22" t="s">
         <v>766</v>
       </c>
       <c r="C653" s="19" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="D653" s="21"/>
       <c r="E653" s="21" t="s">
@@ -29439,13 +29445,13 @@
     </row>
     <row r="654" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A654" s="21" t="s">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="B654" s="22" t="s">
         <v>766</v>
       </c>
       <c r="C654" s="19" t="s">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E654" s="21" t="s">
         <v>19</v>
@@ -29469,7 +29475,7 @@
         <v>767</v>
       </c>
       <c r="C655" s="19" t="s">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="D655" s="27"/>
       <c r="E655" s="27" t="s">
@@ -29613,13 +29619,13 @@
     </row>
     <row r="661" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A661" s="21" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="B661" s="22" t="s">
         <v>767</v>
       </c>
       <c r="C661" s="19" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="D661" s="21"/>
       <c r="E661" s="21" t="s">
@@ -29638,13 +29644,13 @@
     </row>
     <row r="662" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A662" s="21" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="B662" s="22" t="s">
         <v>767</v>
       </c>
       <c r="C662" s="19" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="D662" s="21"/>
       <c r="E662" s="21" t="s">
@@ -29663,13 +29669,13 @@
     </row>
     <row r="663" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A663" s="21" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="B663" s="22" t="s">
         <v>767</v>
       </c>
       <c r="C663" s="19" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="D663" s="21"/>
       <c r="E663" s="21" t="s">
@@ -29688,13 +29694,13 @@
     </row>
     <row r="664" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A664" s="21" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="B664" s="22" t="s">
         <v>767</v>
       </c>
       <c r="C664" s="19" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="D664" s="21"/>
       <c r="E664" s="21" t="s">
@@ -29713,13 +29719,13 @@
     </row>
     <row r="665" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A665" s="21" t="s">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="B665" s="22" t="s">
         <v>767</v>
       </c>
       <c r="C665" s="19" t="s">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E665" s="21" t="s">
         <v>19</v>
@@ -29743,7 +29749,7 @@
         <v>768</v>
       </c>
       <c r="C666" s="19" t="s">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="D666" s="27"/>
       <c r="E666" s="27" t="s">
@@ -29887,13 +29893,13 @@
     </row>
     <row r="672" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A672" s="21" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="B672" s="22" t="s">
         <v>768</v>
       </c>
       <c r="C672" s="19" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="D672" s="21"/>
       <c r="E672" s="21" t="s">
@@ -29912,13 +29918,13 @@
     </row>
     <row r="673" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A673" s="21" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="B673" s="22" t="s">
         <v>768</v>
       </c>
       <c r="C673" s="19" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="D673" s="21"/>
       <c r="E673" s="21" t="s">
@@ -29937,13 +29943,13 @@
     </row>
     <row r="674" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A674" s="21" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="B674" s="22" t="s">
         <v>768</v>
       </c>
       <c r="C674" s="19" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="D674" s="21"/>
       <c r="E674" s="21" t="s">
@@ -29962,13 +29968,13 @@
     </row>
     <row r="675" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A675" s="21" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="B675" s="22" t="s">
         <v>768</v>
       </c>
       <c r="C675" s="19" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="D675" s="21"/>
       <c r="E675" s="21" t="s">
@@ -29987,13 +29993,13 @@
     </row>
     <row r="676" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A676" s="21" t="s">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="B676" s="22" t="s">
         <v>768</v>
       </c>
       <c r="C676" s="19" t="s">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E676" s="21" t="s">
         <v>19</v>
@@ -30017,7 +30023,7 @@
         <v>769</v>
       </c>
       <c r="C677" s="19" t="s">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="D677" s="27"/>
       <c r="E677" s="27" t="s">
@@ -30042,7 +30048,7 @@
         <v>769</v>
       </c>
       <c r="C678" s="19" t="s">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="D678" s="27"/>
       <c r="E678" s="27" t="s">
@@ -30186,13 +30192,13 @@
     </row>
     <row r="684" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A684" s="21" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="B684" s="22" t="s">
         <v>769</v>
       </c>
       <c r="C684" s="19" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="D684" s="21"/>
       <c r="E684" s="21" t="s">
@@ -30211,13 +30217,13 @@
     </row>
     <row r="685" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A685" s="21" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="B685" s="22" t="s">
         <v>769</v>
       </c>
       <c r="C685" s="19" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="D685" s="21"/>
       <c r="E685" s="21" t="s">
@@ -30236,13 +30242,13 @@
     </row>
     <row r="686" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A686" s="21" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="B686" s="22" t="s">
         <v>769</v>
       </c>
       <c r="C686" s="19" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="D686" s="21"/>
       <c r="E686" s="21" t="s">
@@ -30261,13 +30267,13 @@
     </row>
     <row r="687" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A687" s="21" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="B687" s="22" t="s">
         <v>769</v>
       </c>
       <c r="C687" s="19" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="D687" s="21"/>
       <c r="E687" s="21" t="s">
@@ -30286,13 +30292,13 @@
     </row>
     <row r="688" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A688" s="21" t="s">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="B688" s="22" t="s">
         <v>769</v>
       </c>
       <c r="C688" s="19" t="s">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E688" s="21" t="s">
         <v>19</v>
@@ -30341,7 +30347,7 @@
         <v>770</v>
       </c>
       <c r="C690" s="19" t="s">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="D690" s="27"/>
       <c r="E690" s="27" t="s">
@@ -30366,7 +30372,7 @@
         <v>770</v>
       </c>
       <c r="C691" s="19" t="s">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="D691" s="27"/>
       <c r="E691" s="27" t="s">
@@ -30385,13 +30391,13 @@
     </row>
     <row r="692" spans="1:9" s="41" customFormat="1" ht="57.6">
       <c r="A692" s="21" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="B692" s="22" t="s">
         <v>770</v>
       </c>
       <c r="C692" s="19" t="s">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="D692" s="27"/>
       <c r="E692" s="21" t="s">
@@ -30410,13 +30416,13 @@
     </row>
     <row r="693" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A693" s="21" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="B693" s="28" t="s">
         <v>770</v>
       </c>
       <c r="C693" s="19" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="D693" s="21"/>
       <c r="E693" s="21" t="s">
@@ -30435,13 +30441,13 @@
     </row>
     <row r="694" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A694" s="21" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="B694" s="28" t="s">
         <v>770</v>
       </c>
       <c r="C694" s="19" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="D694" s="21"/>
       <c r="E694" s="21" t="s">
@@ -30460,13 +30466,13 @@
     </row>
     <row r="695" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A695" s="21" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="B695" s="28" t="s">
         <v>770</v>
       </c>
       <c r="C695" s="19" t="s">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E695" s="21" t="s">
         <v>19</v>
@@ -30490,7 +30496,7 @@
         <v>770</v>
       </c>
       <c r="C696" s="19" t="s">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="D696" s="27"/>
       <c r="E696" s="27" t="s">
@@ -30515,7 +30521,7 @@
         <v>770</v>
       </c>
       <c r="C697" s="19" t="s">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="D697" s="27"/>
       <c r="E697" s="27" t="s">
@@ -30540,7 +30546,7 @@
         <v>770</v>
       </c>
       <c r="C698" s="19" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="D698" s="27"/>
       <c r="E698" s="27" t="s">
@@ -30565,7 +30571,7 @@
         <v>770</v>
       </c>
       <c r="C699" s="19" t="s">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="D699" s="27"/>
       <c r="E699" s="27" t="s">
@@ -30590,7 +30596,7 @@
         <v>771</v>
       </c>
       <c r="C700" s="19" t="s">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="D700" s="27"/>
       <c r="E700" s="27" t="s">
@@ -30615,7 +30621,7 @@
         <v>771</v>
       </c>
       <c r="C701" s="19" t="s">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="D701" s="27"/>
       <c r="E701" s="27" t="s">
@@ -30640,7 +30646,7 @@
         <v>771</v>
       </c>
       <c r="C702" s="19" t="s">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="D702" s="27"/>
       <c r="E702" s="27" t="s">
@@ -30690,7 +30696,7 @@
         <v>771</v>
       </c>
       <c r="C704" s="19" t="s">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="D704" s="27"/>
       <c r="E704" s="27" t="s">
@@ -30712,7 +30718,7 @@
         <v>450</v>
       </c>
       <c r="B705" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C705" s="29" t="s">
         <v>1056</v>
@@ -30737,7 +30743,7 @@
         <v>451</v>
       </c>
       <c r="B706" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C706" s="29" t="s">
         <v>1057</v>
@@ -30762,10 +30768,10 @@
         <v>452</v>
       </c>
       <c r="B707" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C707" s="19" t="s">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="D707" s="27"/>
       <c r="E707" s="27" t="s">
@@ -30787,7 +30793,7 @@
         <v>453</v>
       </c>
       <c r="B708" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C708" s="29" t="s">
         <v>1058</v>
@@ -30812,7 +30818,7 @@
         <v>454</v>
       </c>
       <c r="B709" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C709" s="29" t="s">
         <v>1059</v>
@@ -30837,7 +30843,7 @@
         <v>455</v>
       </c>
       <c r="B710" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C710" s="29" t="s">
         <v>1060</v>
@@ -30862,7 +30868,7 @@
         <v>456</v>
       </c>
       <c r="B711" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C711" s="29" t="s">
         <v>1061</v>
@@ -30887,7 +30893,7 @@
         <v>457</v>
       </c>
       <c r="B712" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C712" s="29" t="s">
         <v>1062</v>
@@ -30912,7 +30918,7 @@
         <v>458</v>
       </c>
       <c r="B713" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C713" s="29" t="s">
         <v>1063</v>
@@ -30937,7 +30943,7 @@
         <v>459</v>
       </c>
       <c r="B714" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C714" s="29" t="s">
         <v>1064</v>
@@ -30962,10 +30968,10 @@
         <v>460</v>
       </c>
       <c r="B715" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C715" s="19" t="s">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="D715" s="27"/>
       <c r="E715" s="27" t="s">
@@ -30987,7 +30993,7 @@
         <v>461</v>
       </c>
       <c r="B716" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C716" s="29" t="s">
         <v>1065</v>
@@ -31012,7 +31018,7 @@
         <v>462</v>
       </c>
       <c r="B717" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C717" s="29" t="s">
         <v>1066</v>
@@ -31037,7 +31043,7 @@
         <v>463</v>
       </c>
       <c r="B718" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C718" s="29" t="s">
         <v>1060</v>
@@ -31062,7 +31068,7 @@
         <v>464</v>
       </c>
       <c r="B719" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C719" s="29" t="s">
         <v>1067</v>
@@ -31087,7 +31093,7 @@
         <v>465</v>
       </c>
       <c r="B720" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C720" s="29" t="s">
         <v>1068</v>
@@ -31112,7 +31118,7 @@
         <v>466</v>
       </c>
       <c r="B721" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C721" s="19" t="s">
         <v>1069</v>
@@ -31134,13 +31140,13 @@
     </row>
     <row r="722" spans="1:9" s="41" customFormat="1">
       <c r="A722" s="21" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="B722" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C722" s="19" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="D722" s="21"/>
       <c r="E722" s="21" t="s">
@@ -31159,13 +31165,13 @@
     </row>
     <row r="723" spans="1:9" s="41" customFormat="1">
       <c r="A723" s="21" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="B723" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C723" s="19" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="D723" s="21"/>
       <c r="E723" s="21" t="s">
@@ -31184,13 +31190,13 @@
     </row>
     <row r="724" spans="1:9" s="41" customFormat="1">
       <c r="A724" s="21" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="B724" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C724" s="19" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="D724" s="21"/>
       <c r="E724" s="21" t="s">
@@ -31209,13 +31215,13 @@
     </row>
     <row r="725" spans="1:9" s="41" customFormat="1">
       <c r="A725" s="21" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="B725" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C725" s="19" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="D725" s="21"/>
       <c r="E725" s="21" t="s">
@@ -31234,13 +31240,13 @@
     </row>
     <row r="726" spans="1:9" s="41" customFormat="1">
       <c r="A726" s="21" t="s">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="B726" s="22" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C726" s="19" t="s">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E726" s="21" t="s">
         <v>19</v>
@@ -31261,7 +31267,7 @@
         <v>467</v>
       </c>
       <c r="B727" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C727" s="29" t="s">
         <v>1070</v>
@@ -31286,10 +31292,10 @@
         <v>468</v>
       </c>
       <c r="B728" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C728" s="19" t="s">
-        <v>2026</v>
+        <v>2015</v>
       </c>
       <c r="D728" s="27"/>
       <c r="E728" s="27" t="s">
@@ -31311,7 +31317,7 @@
         <v>469</v>
       </c>
       <c r="B729" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C729" s="29" t="s">
         <v>1071</v>
@@ -31336,7 +31342,7 @@
         <v>470</v>
       </c>
       <c r="B730" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C730" s="19" t="s">
         <v>1072</v>
@@ -31358,13 +31364,13 @@
     </row>
     <row r="731" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A731" s="21" t="s">
-        <v>2028</v>
+        <v>2017</v>
       </c>
       <c r="B731" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C731" s="19" t="s">
-        <v>2027</v>
+        <v>2016</v>
       </c>
       <c r="E731" s="41" t="s">
         <v>19</v>
@@ -31385,7 +31391,7 @@
         <v>471</v>
       </c>
       <c r="B732" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C732" s="29" t="s">
         <v>1073</v>
@@ -31410,7 +31416,7 @@
         <v>472</v>
       </c>
       <c r="B733" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C733" s="29" t="s">
         <v>1074</v>
@@ -31435,7 +31441,7 @@
         <v>473</v>
       </c>
       <c r="B734" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C734" s="19" t="s">
         <v>1075</v>
@@ -31457,13 +31463,13 @@
     </row>
     <row r="735" spans="1:9" s="41" customFormat="1">
       <c r="A735" s="21" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="B735" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C735" s="19" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="D735" s="21"/>
       <c r="E735" s="21" t="s">
@@ -31482,13 +31488,13 @@
     </row>
     <row r="736" spans="1:9" s="41" customFormat="1">
       <c r="A736" s="21" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="B736" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C736" s="19" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="D736" s="21"/>
       <c r="E736" s="21" t="s">
@@ -31507,13 +31513,13 @@
     </row>
     <row r="737" spans="1:9" s="41" customFormat="1">
       <c r="A737" s="21" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="B737" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C737" s="19" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="D737" s="21"/>
       <c r="E737" s="21" t="s">
@@ -31532,13 +31538,13 @@
     </row>
     <row r="738" spans="1:9" s="41" customFormat="1">
       <c r="A738" s="21" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="B738" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C738" s="19" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="D738" s="21"/>
       <c r="E738" s="21" t="s">
@@ -31557,13 +31563,13 @@
     </row>
     <row r="739" spans="1:9" s="41" customFormat="1">
       <c r="A739" s="21" t="s">
-        <v>2029</v>
+        <v>2018</v>
       </c>
       <c r="B739" s="22" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C739" s="19" t="s">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="E739" s="21" t="s">
         <v>19</v>
@@ -31584,10 +31590,10 @@
         <v>474</v>
       </c>
       <c r="B740" s="22" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="C740" s="19" t="s">
-        <v>2032</v>
+        <v>2021</v>
       </c>
       <c r="D740" s="27"/>
       <c r="E740" s="27" t="s">
@@ -31609,10 +31615,10 @@
         <v>475</v>
       </c>
       <c r="B741" s="22" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="C741" s="19" t="s">
-        <v>2033</v>
+        <v>2022</v>
       </c>
       <c r="D741" s="27"/>
       <c r="E741" s="27" t="s">
@@ -31634,7 +31640,7 @@
         <v>476</v>
       </c>
       <c r="B742" s="22" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="C742" s="29" t="s">
         <v>1076</v>
@@ -31659,10 +31665,10 @@
         <v>477</v>
       </c>
       <c r="B743" s="22" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="C743" s="19" t="s">
-        <v>2034</v>
+        <v>2023</v>
       </c>
       <c r="D743" s="27"/>
       <c r="E743" s="27" t="s">
@@ -31684,7 +31690,7 @@
         <v>478</v>
       </c>
       <c r="B744" s="22" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="C744" s="29" t="s">
         <v>1077</v>
@@ -31709,7 +31715,7 @@
         <v>479</v>
       </c>
       <c r="B745" s="22" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="C745" s="19" t="s">
         <v>1078</v>
@@ -31731,13 +31737,13 @@
     </row>
     <row r="746" spans="1:9" s="41" customFormat="1">
       <c r="A746" s="21" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="B746" s="22" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="C746" s="19" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="D746" s="21"/>
       <c r="E746" s="21" t="s">
@@ -31756,13 +31762,13 @@
     </row>
     <row r="747" spans="1:9" s="41" customFormat="1">
       <c r="A747" s="21" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="B747" s="22" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="C747" s="19" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="D747" s="21"/>
       <c r="E747" s="21" t="s">
@@ -31781,13 +31787,13 @@
     </row>
     <row r="748" spans="1:9" s="41" customFormat="1">
       <c r="A748" s="21" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="B748" s="22" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="C748" s="19" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="D748" s="21"/>
       <c r="E748" s="21" t="s">
@@ -31806,13 +31812,13 @@
     </row>
     <row r="749" spans="1:9" s="41" customFormat="1">
       <c r="A749" s="21" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="B749" s="22" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="C749" s="19" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="D749" s="21"/>
       <c r="E749" s="21" t="s">
@@ -31831,13 +31837,13 @@
     </row>
     <row r="750" spans="1:9" s="41" customFormat="1">
       <c r="A750" s="21" t="s">
-        <v>2036</v>
+        <v>2025</v>
       </c>
       <c r="B750" s="22" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="C750" s="19" t="s">
-        <v>2035</v>
+        <v>2024</v>
       </c>
       <c r="E750" s="21" t="s">
         <v>19</v>
@@ -31858,7 +31864,7 @@
         <v>480</v>
       </c>
       <c r="B751" s="22" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C751" s="29" t="s">
         <v>1079</v>
@@ -31883,7 +31889,7 @@
         <v>481</v>
       </c>
       <c r="B752" s="22" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C752" s="29" t="s">
         <v>1080</v>
@@ -31908,10 +31914,10 @@
         <v>482</v>
       </c>
       <c r="B753" s="22" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C753" s="19" t="s">
-        <v>2038</v>
+        <v>2027</v>
       </c>
       <c r="D753" s="27"/>
       <c r="E753" s="27" t="s">
@@ -31933,7 +31939,7 @@
         <v>483</v>
       </c>
       <c r="B754" s="22" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C754" s="29" t="s">
         <v>1081</v>
@@ -31958,7 +31964,7 @@
         <v>484</v>
       </c>
       <c r="B755" s="22" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C755" s="29" t="s">
         <v>1082</v>
@@ -31983,7 +31989,7 @@
         <v>485</v>
       </c>
       <c r="B756" s="22" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C756" s="29" t="s">
         <v>1083</v>
@@ -32008,10 +32014,10 @@
         <v>486</v>
       </c>
       <c r="B757" s="22" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C757" s="19" t="s">
-        <v>2039</v>
+        <v>2028</v>
       </c>
       <c r="D757" s="27"/>
       <c r="E757" s="27" t="s">
@@ -32030,13 +32036,13 @@
     </row>
     <row r="758" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A758" s="21" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="B758" s="22" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C758" s="19" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="D758" s="21"/>
       <c r="E758" s="21" t="s">
@@ -32055,13 +32061,13 @@
     </row>
     <row r="759" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A759" s="21" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="B759" s="22" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C759" s="19" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="D759" s="21"/>
       <c r="E759" s="21" t="s">
@@ -32080,13 +32086,13 @@
     </row>
     <row r="760" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A760" s="21" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="B760" s="22" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C760" s="19" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="D760" s="21"/>
       <c r="E760" s="21" t="s">
@@ -32105,13 +32111,13 @@
     </row>
     <row r="761" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A761" s="21" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="B761" s="22" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C761" s="19" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="D761" s="21"/>
       <c r="E761" s="21" t="s">
@@ -32130,13 +32136,13 @@
     </row>
     <row r="762" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A762" s="21" t="s">
-        <v>2041</v>
+        <v>2030</v>
       </c>
       <c r="B762" s="22" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="C762" s="19" t="s">
-        <v>2040</v>
+        <v>2029</v>
       </c>
       <c r="E762" s="21" t="s">
         <v>19</v>
@@ -32185,7 +32191,7 @@
         <v>772</v>
       </c>
       <c r="C764" s="19" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="D764" s="27"/>
       <c r="E764" s="27" t="s">
@@ -32210,7 +32216,7 @@
         <v>772</v>
       </c>
       <c r="C765" s="19" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="D765" s="27"/>
       <c r="E765" s="27" t="s">
@@ -32235,7 +32241,7 @@
         <v>772</v>
       </c>
       <c r="C766" s="19" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="D766" s="27"/>
       <c r="E766" s="27" t="s">
@@ -32285,7 +32291,7 @@
         <v>774</v>
       </c>
       <c r="C768" s="19" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="D768" s="27"/>
       <c r="E768" s="27" t="s">
@@ -32310,7 +32316,7 @@
         <v>774</v>
       </c>
       <c r="C769" s="19" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="D769" s="27"/>
       <c r="E769" s="27" t="s">
@@ -32335,7 +32341,7 @@
         <v>775</v>
       </c>
       <c r="C770" s="19" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="D770" s="27"/>
       <c r="E770" s="27" t="s">
@@ -32360,7 +32366,7 @@
         <v>775</v>
       </c>
       <c r="C771" s="19" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="D771" s="27"/>
       <c r="E771" s="27" t="s">
@@ -32610,7 +32616,7 @@
         <v>777</v>
       </c>
       <c r="C781" s="19" t="s">
-        <v>2042</v>
+        <v>2031</v>
       </c>
       <c r="D781" s="27"/>
       <c r="E781" s="27" t="s">
@@ -32685,7 +32691,7 @@
         <v>777</v>
       </c>
       <c r="C784" s="19" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="D784" s="27"/>
       <c r="E784" s="27" t="s">
@@ -32704,13 +32710,13 @@
     </row>
     <row r="785" spans="1:9" s="41" customFormat="1" ht="57.6">
       <c r="A785" s="21" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="B785" s="28" t="s">
         <v>777</v>
       </c>
       <c r="C785" s="19" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="D785" s="27"/>
       <c r="E785" s="21" t="s">
@@ -32729,13 +32735,13 @@
     </row>
     <row r="786" spans="1:9" s="41" customFormat="1" ht="72">
       <c r="A786" s="21" t="s">
-        <v>2044</v>
+        <v>2033</v>
       </c>
       <c r="B786" s="28" t="s">
         <v>777</v>
       </c>
       <c r="C786" s="19" t="s">
-        <v>2043</v>
+        <v>2032</v>
       </c>
       <c r="E786" s="21" t="s">
         <v>19</v>
@@ -32759,7 +32765,7 @@
         <v>777</v>
       </c>
       <c r="C787" s="19" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="D787" s="27"/>
       <c r="E787" s="27" t="s">
@@ -32778,13 +32784,13 @@
     </row>
     <row r="788" spans="1:9" s="41" customFormat="1" ht="57.6">
       <c r="A788" s="21" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="B788" s="28" t="s">
         <v>777</v>
       </c>
       <c r="C788" s="19" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="D788" s="27"/>
       <c r="E788" s="21" t="s">
@@ -32803,13 +32809,13 @@
     </row>
     <row r="789" spans="1:9" s="41" customFormat="1" ht="72">
       <c r="A789" s="21" t="s">
-        <v>2046</v>
+        <v>2035</v>
       </c>
       <c r="B789" s="28" t="s">
         <v>777</v>
       </c>
       <c r="C789" s="19" t="s">
-        <v>2045</v>
+        <v>2034</v>
       </c>
       <c r="E789" s="21" t="s">
         <v>19</v>
@@ -32908,7 +32914,7 @@
         <v>777</v>
       </c>
       <c r="C793" s="19" t="s">
-        <v>2047</v>
+        <v>2036</v>
       </c>
       <c r="D793" s="27"/>
       <c r="E793" s="27" t="s">
@@ -32933,7 +32939,7 @@
         <v>777</v>
       </c>
       <c r="C794" s="19" t="s">
-        <v>2048</v>
+        <v>2037</v>
       </c>
       <c r="D794" s="27"/>
       <c r="E794" s="27" t="s">
@@ -32952,13 +32958,13 @@
     </row>
     <row r="795" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A795" s="21" t="s">
-        <v>2050</v>
+        <v>2039</v>
       </c>
       <c r="B795" s="28" t="s">
         <v>777</v>
       </c>
       <c r="C795" s="19" t="s">
-        <v>2049</v>
+        <v>2038</v>
       </c>
       <c r="E795" s="27" t="s">
         <v>19</v>
@@ -32976,13 +32982,13 @@
     </row>
     <row r="796" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A796" s="21" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="B796" s="28" t="s">
         <v>778</v>
       </c>
       <c r="C796" s="19" t="s">
-        <v>2051</v>
+        <v>2040</v>
       </c>
       <c r="D796" s="27"/>
       <c r="E796" s="21" t="s">
@@ -33007,7 +33013,7 @@
         <v>778</v>
       </c>
       <c r="C797" s="19" t="s">
-        <v>2052</v>
+        <v>2041</v>
       </c>
       <c r="D797" s="27"/>
       <c r="E797" s="27" t="s">
@@ -33032,7 +33038,7 @@
         <v>778</v>
       </c>
       <c r="C798" s="19" t="s">
-        <v>2053</v>
+        <v>2042</v>
       </c>
       <c r="D798" s="27"/>
       <c r="E798" s="27" t="s">
@@ -33051,13 +33057,13 @@
     </row>
     <row r="799" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A799" s="21" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="B799" s="28" t="s">
         <v>778</v>
       </c>
       <c r="C799" s="19" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D799" s="27"/>
       <c r="E799" s="21" t="s">
@@ -33082,7 +33088,7 @@
         <v>778</v>
       </c>
       <c r="C800" s="19" t="s">
-        <v>2054</v>
+        <v>2043</v>
       </c>
       <c r="D800" s="27"/>
       <c r="E800" s="27" t="s">
@@ -33107,7 +33113,7 @@
         <v>778</v>
       </c>
       <c r="C801" s="19" t="s">
-        <v>2055</v>
+        <v>2044</v>
       </c>
       <c r="D801" s="27"/>
       <c r="E801" s="27" t="s">
@@ -33126,13 +33132,13 @@
     </row>
     <row r="802" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A802" s="21" t="s">
-        <v>2058</v>
+        <v>2047</v>
       </c>
       <c r="B802" s="28" t="s">
         <v>778</v>
       </c>
       <c r="C802" s="19" t="s">
-        <v>2056</v>
+        <v>2045</v>
       </c>
       <c r="E802" s="27" t="s">
         <v>19</v>
@@ -33156,7 +33162,7 @@
         <v>778</v>
       </c>
       <c r="C803" s="19" t="s">
-        <v>2057</v>
+        <v>2046</v>
       </c>
       <c r="D803" s="27"/>
       <c r="E803" s="27" t="s">
@@ -33181,7 +33187,7 @@
         <v>778</v>
       </c>
       <c r="C804" s="19" t="s">
-        <v>2059</v>
+        <v>2048</v>
       </c>
       <c r="D804" s="27"/>
       <c r="E804" s="27" t="s">
@@ -33200,13 +33206,13 @@
     </row>
     <row r="805" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A805" s="40" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="B805" s="36" t="s">
         <v>778</v>
       </c>
       <c r="C805" s="39" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="D805" s="40"/>
       <c r="E805" s="34" t="s">
@@ -33231,7 +33237,7 @@
         <v>778</v>
       </c>
       <c r="C806" s="19" t="s">
-        <v>2060</v>
+        <v>2049</v>
       </c>
       <c r="D806" s="27"/>
       <c r="E806" s="27" t="s">
@@ -33250,13 +33256,13 @@
     </row>
     <row r="807" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A807" s="21" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="B807" s="28" t="s">
         <v>778</v>
       </c>
       <c r="C807" s="19" t="s">
-        <v>2061</v>
+        <v>2050</v>
       </c>
       <c r="D807" s="27"/>
       <c r="E807" s="27" t="s">
@@ -33281,7 +33287,7 @@
         <v>779</v>
       </c>
       <c r="C808" s="19" t="s">
-        <v>2062</v>
+        <v>2051</v>
       </c>
       <c r="D808" s="27"/>
       <c r="E808" s="27" t="s">
@@ -33381,7 +33387,7 @@
         <v>780</v>
       </c>
       <c r="C812" s="19" t="s">
-        <v>2063</v>
+        <v>2052</v>
       </c>
       <c r="D812" s="27"/>
       <c r="E812" s="27" t="s">
@@ -33531,7 +33537,7 @@
         <v>782</v>
       </c>
       <c r="C818" s="19" t="s">
-        <v>2064</v>
+        <v>2053</v>
       </c>
       <c r="D818" s="27"/>
       <c r="E818" s="27" t="s">
@@ -33556,7 +33562,7 @@
         <v>782</v>
       </c>
       <c r="C819" s="19" t="s">
-        <v>2065</v>
+        <v>2054</v>
       </c>
       <c r="D819" s="27"/>
       <c r="E819" s="27" t="s">
@@ -33581,7 +33587,7 @@
         <v>782</v>
       </c>
       <c r="C820" s="19" t="s">
-        <v>2066</v>
+        <v>2055</v>
       </c>
       <c r="D820" s="27"/>
       <c r="E820" s="27" t="s">
@@ -33631,7 +33637,7 @@
         <v>782</v>
       </c>
       <c r="C822" s="19" t="s">
-        <v>2169</v>
+        <v>2156</v>
       </c>
       <c r="D822" s="27"/>
       <c r="E822" s="27" t="s">
@@ -33656,7 +33662,7 @@
         <v>783</v>
       </c>
       <c r="C823" s="19" t="s">
-        <v>2067</v>
+        <v>2056</v>
       </c>
       <c r="D823" s="27"/>
       <c r="E823" s="27" t="s">
@@ -33706,7 +33712,7 @@
         <v>783</v>
       </c>
       <c r="C825" s="19" t="s">
-        <v>2068</v>
+        <v>2057</v>
       </c>
       <c r="D825" s="27"/>
       <c r="E825" s="27" t="s">
@@ -33800,13 +33806,13 @@
     </row>
     <row r="829" spans="1:9" s="41" customFormat="1" ht="57.6">
       <c r="A829" s="21" t="s">
-        <v>2070</v>
+        <v>2059</v>
       </c>
       <c r="B829" s="22" t="s">
-        <v>2069</v>
+        <v>2058</v>
       </c>
       <c r="C829" s="19" t="s">
-        <v>2075</v>
+        <v>2064</v>
       </c>
       <c r="E829" s="27" t="s">
         <v>19</v>
@@ -33824,13 +33830,13 @@
     </row>
     <row r="830" spans="1:9" s="41" customFormat="1" ht="100.8">
       <c r="A830" s="21" t="s">
-        <v>2071</v>
+        <v>2060</v>
       </c>
       <c r="B830" s="22" t="s">
-        <v>2069</v>
+        <v>2058</v>
       </c>
       <c r="C830" s="19" t="s">
-        <v>2076</v>
+        <v>2065</v>
       </c>
       <c r="D830" s="21"/>
       <c r="E830" s="27" t="s">
@@ -33849,13 +33855,13 @@
     </row>
     <row r="831" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A831" s="21" t="s">
-        <v>2072</v>
+        <v>2061</v>
       </c>
       <c r="B831" s="22" t="s">
-        <v>2069</v>
+        <v>2058</v>
       </c>
       <c r="C831" s="19" t="s">
-        <v>2077</v>
+        <v>2066</v>
       </c>
       <c r="D831" s="21"/>
       <c r="E831" s="27" t="s">
@@ -33874,13 +33880,13 @@
     </row>
     <row r="832" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A832" s="21" t="s">
-        <v>2073</v>
+        <v>2062</v>
       </c>
       <c r="B832" s="22" t="s">
-        <v>2069</v>
+        <v>2058</v>
       </c>
       <c r="C832" s="19" t="s">
-        <v>2078</v>
+        <v>2067</v>
       </c>
       <c r="E832" s="27" t="s">
         <v>19</v>
@@ -33898,13 +33904,13 @@
     </row>
     <row r="833" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A833" s="21" t="s">
-        <v>2074</v>
+        <v>2063</v>
       </c>
       <c r="B833" s="22" t="s">
-        <v>2069</v>
+        <v>2058</v>
       </c>
       <c r="C833" s="19" t="s">
-        <v>2079</v>
+        <v>2068</v>
       </c>
       <c r="E833" s="27" t="s">
         <v>19</v>
@@ -33947,13 +33953,13 @@
     </row>
     <row r="835" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A835" s="21" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="B835" s="28" t="s">
         <v>784</v>
       </c>
       <c r="C835" s="19" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="D835" s="27"/>
       <c r="E835" s="21" t="s">
@@ -33972,13 +33978,13 @@
     </row>
     <row r="836" spans="1:9" s="41" customFormat="1">
       <c r="A836" s="21" t="s">
-        <v>2081</v>
+        <v>2070</v>
       </c>
       <c r="B836" s="28" t="s">
         <v>784</v>
       </c>
       <c r="C836" s="19" t="s">
-        <v>2080</v>
+        <v>2069</v>
       </c>
       <c r="D836" s="21"/>
       <c r="E836" s="21" t="s">
@@ -34278,7 +34284,7 @@
         <v>784</v>
       </c>
       <c r="C848" s="19" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="D848" s="27"/>
       <c r="E848" s="27" t="s">
@@ -34294,7 +34300,7 @@
         <v>17</v>
       </c>
       <c r="I848" s="19" t="s">
-        <v>1743</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="849" spans="1:9" s="41" customFormat="1" ht="28.8">
@@ -34430,7 +34436,7 @@
         <v>784</v>
       </c>
       <c r="C854" s="19" t="s">
-        <v>2082</v>
+        <v>2071</v>
       </c>
       <c r="D854" s="27"/>
       <c r="E854" s="27" t="s">
@@ -34830,7 +34836,7 @@
         <v>784</v>
       </c>
       <c r="C870" s="19" t="s">
-        <v>2083</v>
+        <v>2072</v>
       </c>
       <c r="D870" s="27"/>
       <c r="E870" s="27" t="s">
@@ -34955,7 +34961,7 @@
         <v>784</v>
       </c>
       <c r="C875" s="19" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="D875" s="27"/>
       <c r="E875" s="27" t="s">
@@ -34974,13 +34980,13 @@
     </row>
     <row r="876" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A876" s="33" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B876" s="36" t="s">
         <v>784</v>
       </c>
       <c r="C876" s="37" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="D876" s="33"/>
       <c r="E876" s="34" t="s">
@@ -35130,7 +35136,7 @@
         <v>786</v>
       </c>
       <c r="C882" s="19" t="s">
-        <v>2084</v>
+        <v>2073</v>
       </c>
       <c r="D882" s="27"/>
       <c r="E882" s="27" t="s">
@@ -35171,7 +35177,7 @@
         <v>17</v>
       </c>
       <c r="I883" s="29" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="884" spans="1:9" s="41" customFormat="1" ht="28.8">
@@ -35307,7 +35313,7 @@
         <v>786</v>
       </c>
       <c r="C889" s="19" t="s">
-        <v>2085</v>
+        <v>2074</v>
       </c>
       <c r="D889" s="27"/>
       <c r="E889" s="27" t="s">
@@ -35351,13 +35357,13 @@
     </row>
     <row r="891" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A891" s="21" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="B891" s="28" t="s">
         <v>786</v>
       </c>
       <c r="C891" s="19" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D891" s="27"/>
       <c r="E891" s="21" t="s">
@@ -35382,7 +35388,7 @@
         <v>786</v>
       </c>
       <c r="C892" s="19" t="s">
-        <v>2086</v>
+        <v>2075</v>
       </c>
       <c r="D892" s="27"/>
       <c r="E892" s="27" t="s">
@@ -35401,13 +35407,13 @@
     </row>
     <row r="893" spans="1:9" s="41" customFormat="1" ht="57.6">
       <c r="A893" s="34" t="s">
-        <v>1751</v>
+        <v>1740</v>
       </c>
       <c r="B893" s="36" t="s">
         <v>786</v>
       </c>
       <c r="C893" s="37" t="s">
-        <v>2087</v>
+        <v>2076</v>
       </c>
       <c r="D893" s="34"/>
       <c r="E893" s="34" t="s">
@@ -35432,7 +35438,7 @@
         <v>786</v>
       </c>
       <c r="C894" s="19" t="s">
-        <v>2088</v>
+        <v>2077</v>
       </c>
       <c r="D894" s="27"/>
       <c r="E894" s="27" t="s">
@@ -35448,7 +35454,7 @@
         <v>17</v>
       </c>
       <c r="I894" s="19" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="895" spans="1:9" s="41" customFormat="1" ht="72">
@@ -35459,7 +35465,7 @@
         <v>786</v>
       </c>
       <c r="C895" s="19" t="s">
-        <v>2089</v>
+        <v>2078</v>
       </c>
       <c r="D895" s="27"/>
       <c r="E895" s="27" t="s">
@@ -35484,7 +35490,7 @@
         <v>787</v>
       </c>
       <c r="C896" s="19" t="s">
-        <v>2090</v>
+        <v>2079</v>
       </c>
       <c r="D896" s="27"/>
       <c r="E896" s="27" t="s">
@@ -35509,7 +35515,7 @@
         <v>787</v>
       </c>
       <c r="C897" s="19" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="D897" s="27"/>
       <c r="E897" s="27" t="s">
@@ -35525,18 +35531,18 @@
         <v>17</v>
       </c>
       <c r="I897" s="29" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="898" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A898" s="21" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="B898" s="28" t="s">
         <v>787</v>
       </c>
       <c r="C898" s="19" t="s">
-        <v>2091</v>
+        <v>2080</v>
       </c>
       <c r="D898" s="27"/>
       <c r="E898" s="21" t="s">
@@ -35555,13 +35561,13 @@
     </row>
     <row r="899" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A899" s="21" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="B899" s="28" t="s">
         <v>787</v>
       </c>
       <c r="C899" s="19" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="D899" s="27"/>
       <c r="E899" s="21" t="s">
@@ -35580,13 +35586,13 @@
     </row>
     <row r="900" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A900" s="21" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="B900" s="28" t="s">
         <v>787</v>
       </c>
       <c r="C900" s="19" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="D900" s="27"/>
       <c r="E900" s="21" t="s">
@@ -35611,7 +35617,7 @@
         <v>787</v>
       </c>
       <c r="C901" s="19" t="s">
-        <v>2092</v>
+        <v>2081</v>
       </c>
       <c r="D901" s="27"/>
       <c r="E901" s="27" t="s">
@@ -35636,7 +35642,7 @@
         <v>787</v>
       </c>
       <c r="C902" s="19" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="D902" s="27"/>
       <c r="E902" s="27" t="s">
@@ -35652,7 +35658,7 @@
         <v>17</v>
       </c>
       <c r="I902" s="19" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="41" customFormat="1" ht="28.8">
@@ -35688,7 +35694,7 @@
         <v>787</v>
       </c>
       <c r="C904" s="19" t="s">
-        <v>2094</v>
+        <v>2083</v>
       </c>
       <c r="D904" s="27"/>
       <c r="E904" s="27" t="s">
@@ -35704,7 +35710,7 @@
         <v>17</v>
       </c>
       <c r="I904" s="29" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="41" customFormat="1" ht="28.8">
@@ -35715,7 +35721,7 @@
         <v>787</v>
       </c>
       <c r="C905" s="19" t="s">
-        <v>2093</v>
+        <v>2082</v>
       </c>
       <c r="D905" s="27"/>
       <c r="E905" s="27" t="s">
@@ -35815,7 +35821,7 @@
         <v>789</v>
       </c>
       <c r="C909" s="19" t="s">
-        <v>2095</v>
+        <v>2084</v>
       </c>
       <c r="D909" s="27"/>
       <c r="E909" s="27" t="s">
@@ -35831,7 +35837,7 @@
         <v>17</v>
       </c>
       <c r="I909" s="29" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="41" customFormat="1" ht="57.6">
@@ -35842,7 +35848,7 @@
         <v>789</v>
       </c>
       <c r="C910" s="19" t="s">
-        <v>2096</v>
+        <v>2085</v>
       </c>
       <c r="D910" s="27"/>
       <c r="E910" s="27" t="s">
@@ -35867,7 +35873,7 @@
         <v>789</v>
       </c>
       <c r="C911" s="19" t="s">
-        <v>2097</v>
+        <v>2086</v>
       </c>
       <c r="D911" s="27"/>
       <c r="E911" s="27" t="s">
@@ -35883,7 +35889,7 @@
         <v>17</v>
       </c>
       <c r="I911" s="29" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="41" customFormat="1" ht="172.8">
@@ -35894,7 +35900,7 @@
         <v>789</v>
       </c>
       <c r="C912" s="19" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="D912" s="27"/>
       <c r="E912" s="27" t="s">
@@ -35919,7 +35925,7 @@
         <v>789</v>
       </c>
       <c r="C913" s="19" t="s">
-        <v>2098</v>
+        <v>2087</v>
       </c>
       <c r="D913" s="27"/>
       <c r="E913" s="27" t="s">
@@ -35944,7 +35950,7 @@
         <v>790</v>
       </c>
       <c r="C914" s="19" t="s">
-        <v>2099</v>
+        <v>2088</v>
       </c>
       <c r="D914" s="27"/>
       <c r="E914" s="27" t="s">
@@ -35969,7 +35975,7 @@
         <v>790</v>
       </c>
       <c r="C915" s="19" t="s">
-        <v>2100</v>
+        <v>2089</v>
       </c>
       <c r="D915" s="27"/>
       <c r="E915" s="27" t="s">
@@ -35985,7 +35991,7 @@
         <v>17</v>
       </c>
       <c r="I915" s="19" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="916" spans="1:9" s="41" customFormat="1" ht="43.2">
@@ -35996,7 +36002,7 @@
         <v>790</v>
       </c>
       <c r="C916" s="19" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="D916" s="27"/>
       <c r="E916" s="27" t="s">
@@ -36012,7 +36018,7 @@
         <v>17</v>
       </c>
       <c r="I916" s="19" t="s">
-        <v>1749</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="917" spans="1:9" s="41" customFormat="1" ht="28.8">
@@ -36023,7 +36029,7 @@
         <v>790</v>
       </c>
       <c r="C917" s="19" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="D917" s="27"/>
       <c r="E917" s="27" t="s">
@@ -36039,7 +36045,7 @@
         <v>17</v>
       </c>
       <c r="I917" s="29" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="918" spans="1:9" s="41" customFormat="1" ht="86.4">
@@ -36069,13 +36075,13 @@
     </row>
     <row r="919" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A919" s="21" t="s">
-        <v>2107</v>
+        <v>2096</v>
       </c>
       <c r="B919" s="22" t="s">
-        <v>2101</v>
+        <v>2090</v>
       </c>
       <c r="C919" s="19" t="s">
-        <v>2102</v>
+        <v>2091</v>
       </c>
       <c r="D919" s="21"/>
       <c r="E919" s="27" t="s">
@@ -36094,13 +36100,13 @@
     </row>
     <row r="920" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A920" s="21" t="s">
-        <v>2108</v>
+        <v>2097</v>
       </c>
       <c r="B920" s="22" t="s">
-        <v>2101</v>
+        <v>2090</v>
       </c>
       <c r="C920" s="19" t="s">
-        <v>2103</v>
+        <v>2092</v>
       </c>
       <c r="D920" s="21"/>
       <c r="E920" s="27" t="s">
@@ -36119,13 +36125,13 @@
     </row>
     <row r="921" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A921" s="21" t="s">
-        <v>2109</v>
+        <v>2098</v>
       </c>
       <c r="B921" s="22" t="s">
-        <v>2101</v>
+        <v>2090</v>
       </c>
       <c r="C921" s="19" t="s">
-        <v>2104</v>
+        <v>2093</v>
       </c>
       <c r="D921" s="21"/>
       <c r="E921" s="27" t="s">
@@ -36144,13 +36150,13 @@
     </row>
     <row r="922" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A922" s="21" t="s">
-        <v>2110</v>
+        <v>2099</v>
       </c>
       <c r="B922" s="22" t="s">
-        <v>2101</v>
+        <v>2090</v>
       </c>
       <c r="C922" s="19" t="s">
-        <v>2105</v>
+        <v>2094</v>
       </c>
       <c r="D922" s="21"/>
       <c r="E922" s="27" t="s">
@@ -36169,13 +36175,13 @@
     </row>
     <row r="923" spans="1:9" s="41" customFormat="1" ht="86.4">
       <c r="A923" s="21" t="s">
-        <v>2111</v>
+        <v>2100</v>
       </c>
       <c r="B923" s="22" t="s">
-        <v>2101</v>
+        <v>2090</v>
       </c>
       <c r="C923" s="19" t="s">
-        <v>2106</v>
+        <v>2095</v>
       </c>
       <c r="D923" s="21"/>
       <c r="E923" s="27" t="s">
@@ -36500,7 +36506,7 @@
         <v>791</v>
       </c>
       <c r="C936" s="19" t="s">
-        <v>2112</v>
+        <v>2101</v>
       </c>
       <c r="D936" s="27"/>
       <c r="E936" s="27" t="s">
@@ -36699,8 +36705,8 @@
       <c r="B944" s="28" t="s">
         <v>792</v>
       </c>
-      <c r="C944" s="29" t="s">
-        <v>1182</v>
+      <c r="C944" s="19" t="s">
+        <v>2159</v>
       </c>
       <c r="D944" s="27"/>
       <c r="E944" s="27" t="s">
@@ -36724,8 +36730,8 @@
       <c r="B945" s="28" t="s">
         <v>792</v>
       </c>
-      <c r="C945" s="29" t="s">
-        <v>1183</v>
+      <c r="C945" s="19" t="s">
+        <v>2160</v>
       </c>
       <c r="D945" s="27"/>
       <c r="E945" s="27" t="s">
@@ -36749,11 +36755,11 @@
       <c r="B946" s="28" t="s">
         <v>792</v>
       </c>
-      <c r="C946" s="29" t="s">
-        <v>1184</v>
+      <c r="C946" s="19" t="s">
+        <v>2161</v>
       </c>
       <c r="D946" s="27" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="E946" s="27" t="s">
         <v>22</v>
@@ -36768,7 +36774,7 @@
         <v>21</v>
       </c>
       <c r="I946" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="947" spans="1:9" s="41" customFormat="1" ht="57.6">
@@ -36778,11 +36784,11 @@
       <c r="B947" s="28" t="s">
         <v>792</v>
       </c>
-      <c r="C947" s="29" t="s">
-        <v>1185</v>
+      <c r="C947" s="19" t="s">
+        <v>2162</v>
       </c>
       <c r="D947" s="27" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="E947" s="27" t="s">
         <v>22</v>
@@ -36797,7 +36803,7 @@
         <v>20</v>
       </c>
       <c r="I947" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="948" spans="1:9" s="41" customFormat="1" ht="302.39999999999998">
@@ -36807,11 +36813,11 @@
       <c r="B948" s="28" t="s">
         <v>792</v>
       </c>
-      <c r="C948" s="29" t="s">
-        <v>1186</v>
+      <c r="C948" s="19" t="s">
+        <v>2163</v>
       </c>
       <c r="D948" s="27" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="E948" s="27" t="s">
         <v>22</v>
@@ -36826,7 +36832,7 @@
         <v>21</v>
       </c>
       <c r="I948" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="949" spans="1:9" s="41" customFormat="1" ht="72">
@@ -36837,10 +36843,10 @@
         <v>792</v>
       </c>
       <c r="C949" s="29" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="D949" s="27" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="E949" s="27" t="s">
         <v>22</v>
@@ -36855,7 +36861,7 @@
         <v>20</v>
       </c>
       <c r="I949" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="950" spans="1:9" s="41" customFormat="1" ht="43.2">
@@ -36866,10 +36872,10 @@
         <v>792</v>
       </c>
       <c r="C950" s="29" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="D950" s="27" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="E950" s="27" t="s">
         <v>22</v>
@@ -36884,7 +36890,7 @@
         <v>20</v>
       </c>
       <c r="I950" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="951" spans="1:9" s="41" customFormat="1" ht="43.2">
@@ -36895,10 +36901,10 @@
         <v>792</v>
       </c>
       <c r="C951" s="19" t="s">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="D951" s="21" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="E951" s="27" t="s">
         <v>22</v>
@@ -36913,21 +36919,21 @@
         <v>20</v>
       </c>
       <c r="I951" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="952" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A952" s="21" t="s">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="B952" s="22" t="s">
         <v>792</v>
       </c>
       <c r="C952" s="19" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="D952" s="21" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="E952" s="21" t="s">
         <v>22</v>
@@ -36942,21 +36948,21 @@
         <v>20</v>
       </c>
       <c r="I952" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="953" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A953" s="21" t="s">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="B953" s="22" t="s">
         <v>792</v>
       </c>
       <c r="C953" s="19" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="D953" s="21" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="E953" s="21" t="s">
         <v>22</v>
@@ -36971,7 +36977,7 @@
         <v>20</v>
       </c>
       <c r="I953" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="954" spans="1:9" s="41" customFormat="1" ht="100.8">
@@ -36982,10 +36988,10 @@
         <v>792</v>
       </c>
       <c r="C954" s="19" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="D954" s="21" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="E954" s="27" t="s">
         <v>22</v>
@@ -37000,7 +37006,7 @@
         <v>21</v>
       </c>
       <c r="I954" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="955" spans="1:9" s="41" customFormat="1" ht="28.8">
@@ -37011,7 +37017,7 @@
         <v>792</v>
       </c>
       <c r="C955" s="19" t="s">
-        <v>1265</v>
+        <v>2164</v>
       </c>
       <c r="D955" s="27"/>
       <c r="E955" s="27" t="s">
@@ -37030,13 +37036,13 @@
     </row>
     <row r="956" spans="1:9" s="41" customFormat="1" ht="57.6">
       <c r="A956" s="21" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="B956" s="28" t="s">
         <v>792</v>
       </c>
       <c r="C956" s="19" t="s">
-        <v>1731</v>
+        <v>2165</v>
       </c>
       <c r="D956" s="21"/>
       <c r="E956" s="21" t="s">
@@ -37055,16 +37061,16 @@
     </row>
     <row r="957" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A957" s="21" t="s">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="B957" s="28" t="s">
         <v>792</v>
       </c>
       <c r="C957" s="19" t="s">
-        <v>1730</v>
+        <v>2166</v>
       </c>
       <c r="D957" s="21" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="E957" s="21" t="s">
         <v>22</v>
@@ -37079,21 +37085,21 @@
         <v>20</v>
       </c>
       <c r="I957" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="958" spans="1:9" s="41" customFormat="1" ht="57.6">
       <c r="A958" s="21" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="B958" s="28" t="s">
         <v>792</v>
       </c>
       <c r="C958" s="19" t="s">
-        <v>2113</v>
+        <v>2167</v>
       </c>
       <c r="D958" s="27" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="E958" s="21" t="s">
         <v>22</v>
@@ -37108,21 +37114,21 @@
         <v>20</v>
       </c>
       <c r="I958" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="959" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A959" s="21" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="B959" s="22" t="s">
         <v>792</v>
       </c>
       <c r="C959" s="19" t="s">
-        <v>2114</v>
+        <v>2168</v>
       </c>
       <c r="D959" s="21" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="E959" s="21" t="s">
         <v>22</v>
@@ -37137,21 +37143,21 @@
         <v>20</v>
       </c>
       <c r="I959" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="960" spans="1:9" s="41" customFormat="1" ht="57.6">
       <c r="A960" s="21" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="B960" s="28" t="s">
         <v>792</v>
       </c>
       <c r="C960" s="19" t="s">
-        <v>1747</v>
+        <v>2169</v>
       </c>
       <c r="D960" s="21" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="E960" s="21" t="s">
         <v>22</v>
@@ -37166,21 +37172,21 @@
         <v>20</v>
       </c>
       <c r="I960" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="961" spans="1:9" s="41" customFormat="1" ht="43.2">
       <c r="A961" s="21" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="B961" s="22" t="s">
         <v>792</v>
       </c>
       <c r="C961" s="19" t="s">
-        <v>1748</v>
+        <v>2170</v>
       </c>
       <c r="D961" s="21" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="E961" s="21" t="s">
         <v>22</v>
@@ -37195,7 +37201,7 @@
         <v>20</v>
       </c>
       <c r="I961" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="962" spans="1:9" s="41" customFormat="1" ht="86.4">
@@ -37206,10 +37212,10 @@
         <v>792</v>
       </c>
       <c r="C962" s="19" t="s">
-        <v>1736</v>
+        <v>2171</v>
       </c>
       <c r="D962" s="21" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="E962" s="27" t="s">
         <v>22</v>
@@ -37224,18 +37230,18 @@
         <v>20</v>
       </c>
       <c r="I962" s="29" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="963" spans="1:9" s="41" customFormat="1">
       <c r="A963" s="30" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="B963" s="31" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="C963" s="32" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="D963" s="33"/>
       <c r="E963" s="34" t="s">
@@ -37260,7 +37266,7 @@
         <v>793</v>
       </c>
       <c r="C964" s="19" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="D964" s="27"/>
       <c r="E964" s="27" t="s">
@@ -37285,7 +37291,7 @@
         <v>793</v>
       </c>
       <c r="C965" s="19" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="D965" s="27"/>
       <c r="E965" s="27" t="s">
@@ -37310,7 +37316,7 @@
         <v>793</v>
       </c>
       <c r="C966" s="19" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="D966" s="27"/>
       <c r="E966" s="27" t="s">
@@ -37335,7 +37341,7 @@
         <v>793</v>
       </c>
       <c r="C967" s="19" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="D967" s="27"/>
       <c r="E967" s="27" t="s">
@@ -37360,7 +37366,7 @@
         <v>793</v>
       </c>
       <c r="C968" s="19" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="D968" s="27"/>
       <c r="E968" s="27" t="s">
@@ -37385,7 +37391,7 @@
         <v>793</v>
       </c>
       <c r="C969" s="19" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="D969" s="27"/>
       <c r="E969" s="27" t="s">
@@ -37410,7 +37416,7 @@
         <v>793</v>
       </c>
       <c r="C970" s="19" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="D970" s="27"/>
       <c r="E970" s="27" t="s">
@@ -37435,7 +37441,7 @@
         <v>793</v>
       </c>
       <c r="C971" s="19" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="D971" s="27"/>
       <c r="E971" s="27" t="s">
@@ -37460,7 +37466,7 @@
         <v>793</v>
       </c>
       <c r="C972" s="19" t="s">
-        <v>2115</v>
+        <v>2102</v>
       </c>
       <c r="D972" s="27"/>
       <c r="E972" s="27" t="s">
@@ -37485,7 +37491,7 @@
         <v>793</v>
       </c>
       <c r="C973" s="19" t="s">
-        <v>2116</v>
+        <v>2103</v>
       </c>
       <c r="D973" s="27"/>
       <c r="E973" s="27" t="s">
@@ -37510,7 +37516,7 @@
         <v>793</v>
       </c>
       <c r="C974" s="19" t="s">
-        <v>2117</v>
+        <v>2104</v>
       </c>
       <c r="D974" s="27"/>
       <c r="E974" s="27" t="s">
@@ -37535,7 +37541,7 @@
         <v>793</v>
       </c>
       <c r="C975" s="19" t="s">
-        <v>2118</v>
+        <v>2105</v>
       </c>
       <c r="D975" s="27"/>
       <c r="E975" s="27" t="s">
@@ -37560,7 +37566,7 @@
         <v>793</v>
       </c>
       <c r="C976" s="19" t="s">
-        <v>2119</v>
+        <v>2106</v>
       </c>
       <c r="D976" s="27"/>
       <c r="E976" s="27" t="s">
@@ -37585,7 +37591,7 @@
         <v>793</v>
       </c>
       <c r="C977" s="19" t="s">
-        <v>2120</v>
+        <v>2107</v>
       </c>
       <c r="D977" s="27"/>
       <c r="E977" s="27" t="s">
@@ -37610,7 +37616,7 @@
         <v>793</v>
       </c>
       <c r="C978" s="19" t="s">
-        <v>2121</v>
+        <v>2108</v>
       </c>
       <c r="D978" s="27"/>
       <c r="E978" s="27" t="s">
@@ -37635,7 +37641,7 @@
         <v>793</v>
       </c>
       <c r="C979" s="19" t="s">
-        <v>2122</v>
+        <v>2109</v>
       </c>
       <c r="D979" s="27"/>
       <c r="E979" s="27" t="s">
@@ -37660,7 +37666,7 @@
         <v>793</v>
       </c>
       <c r="C980" s="19" t="s">
-        <v>2123</v>
+        <v>2110</v>
       </c>
       <c r="D980" s="27"/>
       <c r="E980" s="27" t="s">
@@ -37685,7 +37691,7 @@
         <v>793</v>
       </c>
       <c r="C981" s="19" t="s">
-        <v>2124</v>
+        <v>2111</v>
       </c>
       <c r="D981" s="27"/>
       <c r="E981" s="27" t="s">
@@ -37710,7 +37716,7 @@
         <v>793</v>
       </c>
       <c r="C982" s="19" t="s">
-        <v>2125</v>
+        <v>2112</v>
       </c>
       <c r="D982" s="27"/>
       <c r="E982" s="27" t="s">
@@ -37735,7 +37741,7 @@
         <v>793</v>
       </c>
       <c r="C983" s="19" t="s">
-        <v>2126</v>
+        <v>2113</v>
       </c>
       <c r="D983" s="27"/>
       <c r="E983" s="27" t="s">
@@ -37760,7 +37766,7 @@
         <v>793</v>
       </c>
       <c r="C984" s="19" t="s">
-        <v>2127</v>
+        <v>2114</v>
       </c>
       <c r="D984" s="27"/>
       <c r="E984" s="27" t="s">
@@ -37785,7 +37791,7 @@
         <v>793</v>
       </c>
       <c r="C985" s="19" t="s">
-        <v>2128</v>
+        <v>2115</v>
       </c>
       <c r="D985" s="27"/>
       <c r="E985" s="27" t="s">
@@ -37810,7 +37816,7 @@
         <v>793</v>
       </c>
       <c r="C986" s="19" t="s">
-        <v>2129</v>
+        <v>2116</v>
       </c>
       <c r="D986" s="27"/>
       <c r="E986" s="27" t="s">
@@ -37835,7 +37841,7 @@
         <v>793</v>
       </c>
       <c r="C987" s="19" t="s">
-        <v>2130</v>
+        <v>2117</v>
       </c>
       <c r="D987" s="27"/>
       <c r="E987" s="27" t="s">
@@ -37860,7 +37866,7 @@
         <v>793</v>
       </c>
       <c r="C988" s="19" t="s">
-        <v>2131</v>
+        <v>2118</v>
       </c>
       <c r="D988" s="27"/>
       <c r="E988" s="27" t="s">
@@ -37885,7 +37891,7 @@
         <v>793</v>
       </c>
       <c r="C989" s="19" t="s">
-        <v>2132</v>
+        <v>2119</v>
       </c>
       <c r="D989" s="27"/>
       <c r="E989" s="27" t="s">
@@ -37910,7 +37916,7 @@
         <v>793</v>
       </c>
       <c r="C990" s="19" t="s">
-        <v>2133</v>
+        <v>2120</v>
       </c>
       <c r="D990" s="27"/>
       <c r="E990" s="27" t="s">
@@ -37935,7 +37941,7 @@
         <v>793</v>
       </c>
       <c r="C991" s="19" t="s">
-        <v>2134</v>
+        <v>2121</v>
       </c>
       <c r="D991" s="27"/>
       <c r="E991" s="27" t="s">
@@ -37960,7 +37966,7 @@
         <v>793</v>
       </c>
       <c r="C992" s="19" t="s">
-        <v>2135</v>
+        <v>2122</v>
       </c>
       <c r="D992" s="27"/>
       <c r="E992" s="27" t="s">
@@ -37985,7 +37991,7 @@
         <v>793</v>
       </c>
       <c r="C993" s="19" t="s">
-        <v>2136</v>
+        <v>2123</v>
       </c>
       <c r="D993" s="27"/>
       <c r="E993" s="27" t="s">
@@ -38010,7 +38016,7 @@
         <v>793</v>
       </c>
       <c r="C994" s="19" t="s">
-        <v>2137</v>
+        <v>2124</v>
       </c>
       <c r="D994" s="27"/>
       <c r="E994" s="27" t="s">
@@ -38035,7 +38041,7 @@
         <v>793</v>
       </c>
       <c r="C995" s="19" t="s">
-        <v>2138</v>
+        <v>2125</v>
       </c>
       <c r="D995" s="27"/>
       <c r="E995" s="27" t="s">
@@ -38060,7 +38066,7 @@
         <v>793</v>
       </c>
       <c r="C996" s="19" t="s">
-        <v>2139</v>
+        <v>2126</v>
       </c>
       <c r="D996" s="27"/>
       <c r="E996" s="27" t="s">
@@ -38085,7 +38091,7 @@
         <v>793</v>
       </c>
       <c r="C997" s="19" t="s">
-        <v>2140</v>
+        <v>2127</v>
       </c>
       <c r="D997" s="27"/>
       <c r="E997" s="27" t="s">
@@ -38110,7 +38116,7 @@
         <v>793</v>
       </c>
       <c r="C998" s="19" t="s">
-        <v>2141</v>
+        <v>2128</v>
       </c>
       <c r="D998" s="27"/>
       <c r="E998" s="27" t="s">
@@ -38135,7 +38141,7 @@
         <v>793</v>
       </c>
       <c r="C999" s="19" t="s">
-        <v>2142</v>
+        <v>2129</v>
       </c>
       <c r="D999" s="27"/>
       <c r="E999" s="27" t="s">
@@ -38160,7 +38166,7 @@
         <v>793</v>
       </c>
       <c r="C1000" s="19" t="s">
-        <v>2143</v>
+        <v>2130</v>
       </c>
       <c r="D1000" s="27"/>
       <c r="E1000" s="27" t="s">
@@ -38185,7 +38191,7 @@
         <v>793</v>
       </c>
       <c r="C1001" s="19" t="s">
-        <v>2144</v>
+        <v>2131</v>
       </c>
       <c r="D1001" s="27"/>
       <c r="E1001" s="27" t="s">
@@ -38210,7 +38216,7 @@
         <v>793</v>
       </c>
       <c r="C1002" s="19" t="s">
-        <v>2145</v>
+        <v>2132</v>
       </c>
       <c r="D1002" s="27"/>
       <c r="E1002" s="27" t="s">
@@ -38235,7 +38241,7 @@
         <v>793</v>
       </c>
       <c r="C1003" s="19" t="s">
-        <v>2146</v>
+        <v>2133</v>
       </c>
       <c r="D1003" s="27"/>
       <c r="E1003" s="27" t="s">
@@ -38260,7 +38266,7 @@
         <v>793</v>
       </c>
       <c r="C1004" s="19" t="s">
-        <v>2147</v>
+        <v>2134</v>
       </c>
       <c r="D1004" s="27"/>
       <c r="E1004" s="27" t="s">
@@ -38285,7 +38291,7 @@
         <v>793</v>
       </c>
       <c r="C1005" s="19" t="s">
-        <v>2148</v>
+        <v>2135</v>
       </c>
       <c r="D1005" s="27"/>
       <c r="E1005" s="27" t="s">
@@ -38310,7 +38316,7 @@
         <v>793</v>
       </c>
       <c r="C1006" s="19" t="s">
-        <v>2149</v>
+        <v>2136</v>
       </c>
       <c r="D1006" s="27"/>
       <c r="E1006" s="27" t="s">
@@ -38335,7 +38341,7 @@
         <v>793</v>
       </c>
       <c r="C1007" s="19" t="s">
-        <v>2150</v>
+        <v>2137</v>
       </c>
       <c r="D1007" s="27"/>
       <c r="E1007" s="27" t="s">
@@ -38360,7 +38366,7 @@
         <v>793</v>
       </c>
       <c r="C1008" s="19" t="s">
-        <v>2151</v>
+        <v>2138</v>
       </c>
       <c r="D1008" s="27"/>
       <c r="E1008" s="27" t="s">
@@ -38385,7 +38391,7 @@
         <v>793</v>
       </c>
       <c r="C1009" s="19" t="s">
-        <v>2152</v>
+        <v>2139</v>
       </c>
       <c r="D1009" s="27"/>
       <c r="E1009" s="27" t="s">
@@ -38410,7 +38416,7 @@
         <v>793</v>
       </c>
       <c r="C1010" s="19" t="s">
-        <v>2153</v>
+        <v>2140</v>
       </c>
       <c r="D1010" s="27"/>
       <c r="E1010" s="27" t="s">
@@ -38435,7 +38441,7 @@
         <v>793</v>
       </c>
       <c r="C1011" s="19" t="s">
-        <v>2154</v>
+        <v>2141</v>
       </c>
       <c r="D1011" s="27"/>
       <c r="E1011" s="27" t="s">
@@ -38460,7 +38466,7 @@
         <v>793</v>
       </c>
       <c r="C1012" s="19" t="s">
-        <v>2155</v>
+        <v>2142</v>
       </c>
       <c r="D1012" s="27"/>
       <c r="E1012" s="27" t="s">
@@ -38485,7 +38491,7 @@
         <v>793</v>
       </c>
       <c r="C1013" s="19" t="s">
-        <v>2156</v>
+        <v>2143</v>
       </c>
       <c r="D1013" s="27"/>
       <c r="E1013" s="27" t="s">
@@ -38510,7 +38516,7 @@
         <v>793</v>
       </c>
       <c r="C1014" s="19" t="s">
-        <v>2157</v>
+        <v>2144</v>
       </c>
       <c r="D1014" s="27"/>
       <c r="E1014" s="27" t="s">
@@ -38535,7 +38541,7 @@
         <v>793</v>
       </c>
       <c r="C1015" s="19" t="s">
-        <v>2158</v>
+        <v>2145</v>
       </c>
       <c r="D1015" s="27"/>
       <c r="E1015" s="27" t="s">
@@ -38560,7 +38566,7 @@
         <v>793</v>
       </c>
       <c r="C1016" s="19" t="s">
-        <v>2159</v>
+        <v>2146</v>
       </c>
       <c r="D1016" s="27"/>
       <c r="E1016" s="27" t="s">
@@ -38579,13 +38585,13 @@
     </row>
     <row r="1017" spans="1:9" s="41" customFormat="1" ht="28.8">
       <c r="A1017" s="21" t="s">
-        <v>2161</v>
+        <v>2148</v>
       </c>
       <c r="B1017" s="22" t="s">
         <v>793</v>
       </c>
       <c r="C1017" s="19" t="s">
-        <v>2160</v>
+        <v>2147</v>
       </c>
       <c r="D1017" s="21"/>
       <c r="E1017" s="27" t="s">
@@ -38610,7 +38616,7 @@
         <v>716</v>
       </c>
       <c r="C1018" s="29" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="D1018" s="27"/>
       <c r="E1018" s="27" t="s">
@@ -38635,7 +38641,7 @@
         <v>716</v>
       </c>
       <c r="C1019" s="29" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="D1019" s="27"/>
       <c r="E1019" s="27" t="s">
@@ -38660,7 +38666,7 @@
         <v>716</v>
       </c>
       <c r="C1020" s="29" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="D1020" s="27"/>
       <c r="E1020" s="27" t="s">
@@ -38685,7 +38691,7 @@
         <v>717</v>
       </c>
       <c r="C1021" s="29" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="D1021" s="27"/>
       <c r="E1021" s="27" t="s">
@@ -38710,7 +38716,7 @@
         <v>717</v>
       </c>
       <c r="C1022" s="29" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="D1022" s="27"/>
       <c r="E1022" s="27" t="s">
@@ -38735,7 +38741,7 @@
         <v>2.6</v>
       </c>
       <c r="C1023" s="19" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
       <c r="D1023" s="27"/>
       <c r="E1023" s="27" t="s">
@@ -38760,7 +38766,7 @@
         <v>2.7</v>
       </c>
       <c r="C1024" s="29" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="D1024" s="27"/>
       <c r="E1024" s="27" t="s">
@@ -38785,7 +38791,7 @@
         <v>2.7</v>
       </c>
       <c r="C1025" s="29" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="D1025" s="27"/>
       <c r="E1025" s="27" t="s">
@@ -38810,7 +38816,7 @@
         <v>2.7</v>
       </c>
       <c r="C1026" s="29" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="D1026" s="27"/>
       <c r="E1026" s="27" t="s">
@@ -38835,7 +38841,7 @@
         <v>2.7</v>
       </c>
       <c r="C1027" s="29" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="D1027" s="27"/>
       <c r="E1027" s="27" t="s">
@@ -38860,7 +38866,7 @@
         <v>2.8</v>
       </c>
       <c r="C1028" s="29" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="D1028" s="27"/>
       <c r="E1028" s="27" t="s">
@@ -38885,7 +38891,7 @@
         <v>2.8</v>
       </c>
       <c r="C1029" s="29" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="D1029" s="27"/>
       <c r="E1029" s="27" t="s">
@@ -38912,11 +38918,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -38924,6 +38925,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A284:I284 D963:E963 A876:E876 A1018:I1029 A296:I296 I102:I106 A118:I118 I113:I117 A130:I130 I125:I129 A141:I141 I136:I140 A153:I153 I148:I152 A164:I164 I159:I163 A176:I176 I171:I175 A188:I188 I183:I187 A199:I199 I194:I198 A211:I211 I206:I210 A225:I225 I220:I224 A237:I237 I232:I236 A248:I248 I243:I247 A260:I260 I255:I259 A272:I272 I267:I271 A308:I308 I303:I307 A321:I321 I316:I320 A331:I331 I326:I330 A344:I344 I339:I343 I350:I354 A365:I365 I360:I364 A376:I376 I371:I375 A390:I390 I385:I389 I399:I403 A413:I413 I408:I412 A423:I423 I418:I422 A433:I433 I428:I432 A447:I447 I442:I446 A459:I459 I454:I458 A474:I474 I469:I473 A486:I486 I481:I485 A498:I498 I493:I497 I503:I507 A520:I520 I515:I519 I526:I530 A549:I549 I544:I548 I552:I556 A569:I569 I564:I568 A580:I580 I575:I579 A591:I591 I585:I589 A598:I598 I593:I597 A608:I608 I603:I607 A619:I619 I614:I618 A630:I630 I625:I629 A644:I644 I639:I643 A655:I655 I650:I654 A666:I666 I661:I665 A677:I677 I672:I676 I684:I688 A727:I727 I722:I726 A740:I740 I735:I739 A751:I751 I746:I750 I758:I762 A355:I355 C590:I590 A956:C956 E956:I956 A877:I892 A957:I962 C107:I112 C95:I101 B95:B106 A20:I94 C119:I124 A119:A129 C131:I135 A131:A140 C142:I147 A142:A152 A154:A163 C154:I158 A165:A175 C165:I170 A177:A187 C177:I182 A189:A198 C189:I193 C200:I205 A200:A210 C212:I219 A212:A224 C226:I231 A226:A236 C238:I242 A238:A247 C249:I254 A249:A259 C261:I266 A261:A271 C273:I277 C278:E278 A273:A283 C290:E290 C285:I289 A285:A295 C297:I302 A297:A307 C309:I315 A309:A320 C322:I325 A322:A330 C332:I338 A332:A343 A345:A353 C345:I349 A354:B354 C356:I359 A356:A364 C366:I370 A366:A375 C377:I384 A377:A389 C391:I398 A391:A403 A404:I407 A408:B412 C414:I417 A414:A422 C424:I427 A424:A432 C434:I441 A434:A446 C448:I453 A448:A458 C460:I468 A460:A473 C475:I480 A475:A485 C487:I492 A487:A497 C499:I502 A499:A507 A508:I514 A515:B519 C521:I525 A521:A530 A531:I541 C542:I543 A542:A548 C550:I551 A550:A556 A557:I562 C563:I563 A563:A568 C570:I574 A570:A579 C581:I584 A581:A590 C592:I592 A592:A597 C599:I602 A599:A607 C609:I613 A609:A618 C620:I624 A620:A629 C631:I638 A631:A643 C645:I649 A645:A654 C656:I660 A656:A665 C667:I671 A667:A676 C678:I683 A678:A688 A689:I717 C718:I721 A718:A726 C728:I734 A728:A739 C741:I745 A741:A750 C752:I757 A752:A762 A763:I828 A829:A833 C829:I833 A834:I875 A894:I955 A964:B1017 D964:I1017 A95:A117">
@@ -42683,6 +42689,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -42731,15 +42746,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -42747,6 +42753,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42757,14 +42771,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
